--- a/reports/2024-05-30 - RADx Data Hub Content Report Semantic.xlsx
+++ b/reports/2024-05-30 - RADx Data Hub Content Report Semantic.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="805">
   <si>
     <t>This workbook collects statistics on studies stored in the RADx Data Hub and provides information on the number of studies corresponding to labels on the studies.</t>
   </si>
@@ -700,7 +700,7 @@
     <t>Case-Control; Epidemiologic Study</t>
   </si>
   <si>
-    <t>Clinical Trial; Interventional/Clinical Trial; Clinical Study</t>
+    <t>Interventional/Clinical Trial; Clinical Study</t>
   </si>
   <si>
     <t>Cross-Sectional; Epidemiologic Study</t>
@@ -1096,13 +1096,10 @@
     <t>NICHD</t>
   </si>
   <si>
-    <t>NIH OD; NIH</t>
-  </si>
-  <si>
-    <t>NCATS; NIH</t>
-  </si>
-  <si>
-    <t>NIDDK; NIH</t>
+    <t>UNKNOWN OR INVALID</t>
+  </si>
+  <si>
+    <t>NIDDK</t>
   </si>
   <si>
     <t>NIA; NIAID</t>
@@ -1117,12 +1114,6 @@
     <t>NIGMS</t>
   </si>
   <si>
-    <t>NIH</t>
-  </si>
-  <si>
-    <t>NIDDK</t>
-  </si>
-  <si>
     <t>NIA; NIAID; NICHD; NIMH</t>
   </si>
   <si>
@@ -1150,469 +1141,469 @@
     <t>NIGMS; NIMH</t>
   </si>
   <si>
-    <t>Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
     <t>COVID Hotspots; Digital Health Applications; Aging; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; COVID Hotspots; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Novel Biosensing and VOC; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Multimodal Surveillance; Biosensor Technology; Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Virological Testing; Pregnancy; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Wastewater Surveillance; Community Outreach Programs; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Children; Aging; Intervention or Procedure; Vaccination; Age Related Group; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Screening Testing; Disease Surveillance; Wastewater Surveillance; Variants; Next Generation Sequencing (NGS); Aging; COVID-19; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Virological Testing; Digital Health Applications; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Virological Testing; Serological (Antibody) Testing; Biosensor Technology; Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Biosensor Technology; Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Biosensor Technology; Digital Health Applications; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Biosensor Technology; Digital Health Applications; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Next Generation Sequencing (NGS); Disease Surveillance; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Biosensor Technology; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Social Determinants of Health; Children; COVID-19-Related Disorders; Age Related Group</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Point-of-Care (POC) Testing; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Multimodal Surveillance; Virological Testing; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Virological Testing; Children; Intervention or Procedure; COVID-19-Related Disorders; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Novel Biosensing and VOC; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Virological Testing; Serological (Antibody) Testing; Children; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group; Behavior</t>
+    <t>Testing Rate/Uptake; COVID Hotspots; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Novel Biosensing and VOC; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Multimodal Surveillance; Biosensor Technology; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Virological Testing; Pregnancy; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Wastewater Surveillance; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Children; Aging; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Vaccination</t>
+  </si>
+  <si>
+    <t>Screening Testing; Disease Surveillance; Wastewater Surveillance; Variants; Next Generation Sequencing (NGS); Aging; Infections; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Virological Testing; Digital Health Applications; Influenza; Infections; Behavior; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Virological Testing; Serological (Antibody) Testing; Biosensor Technology; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Biosensor Technology; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Biosensor Technology; Digital Health Applications; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Biosensor Technology; Digital Health Applications; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Next Generation Sequencing (NGS); Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Biosensor Technology; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Social Determinants of Health; Children; Age Related Group; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Point-of-Care (POC) Testing; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Multimodal Surveillance; Virological Testing; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Virological Testing; Children; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Novel Biosensing and VOC; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Virological Testing; Serological (Antibody) Testing; Children; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
   </si>
   <si>
     <t>Children; Age Related Group</t>
   </si>
   <si>
-    <t>Novel Biosensing and VOC; Multimodal Surveillance; Virological Testing; Disease Surveillance; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Multimodal Surveillance; Virological Testing; Influenza; Respiratory Tract Infections; Disease Surveillance; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Virological Testing; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Community Outreach Programs; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Health Behaviors; Virological Testing; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
+    <t>Novel Biosensing and VOC; Multimodal Surveillance; Virological Testing; Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Multimodal Surveillance; Virological Testing; Influenza; Infections; Intervention or Procedure; Disease Surveillance; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Virological Testing; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Health Behaviors; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
   </si>
   <si>
     <t>Social Determinants of Health; Aging</t>
   </si>
   <si>
-    <t>Novel Biosensing and VOC; Virological Testing; Medical Device Development; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Substance Use; Virological Testing; Community Outreach Programs; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Virological Testing; Influenza; Aging; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Intervention or Procedure; COVID-19-Related Disorders; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Variants; COVID-19; Disease Surveillance; Intervention or Procedure; Infections</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Disease Surveillance; Serological (Antibody) Testing; Social Determinants of Health; Minorities; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; COVID-19-Related Disorders; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Cancer; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Mobile Unit Testing; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Screening Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Community Outreach Programs; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Cancer; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Seroprevalence; Serological (Antibody) Testing; Community Outreach Programs; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Community Outreach Programs; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Minorities; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
+    <t>Novel Biosensing and VOC; Virological Testing; Medical Device Development; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Substance Use; Virological Testing; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Virological Testing; Influenza; Aging; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Variants; Infections; Intervention or Procedure; COVID-19; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Disease Surveillance; Serological (Antibody) Testing; Social Determinants of Health; Minorities; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Age Related Group; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Cancer; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Mobile Unit Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Screening Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Cancer; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Seroprevalence; Serological (Antibody) Testing; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Minorities; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
   </si>
   <si>
     <t>Comorbidities; Multimodal Surveillance; Minorities; Disease Surveillance; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Mental Health; Substance Use; Community Outreach Programs; Aging; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Social Determinants of Health; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Mental Health; Substance Use; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Social Determinants of Health; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
     <t>COVID in School Settings; Children; Population-Based Statistics; Age Related Group</t>
   </si>
   <si>
-    <t>Comorbidities; Substance Use; Mobile Unit Testing; African American Population; Cancer; Diabetes; Obesity; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Diabetes; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Comorbidities; Substance Use; Mobile Unit Testing; African American Population; Cancer; Diabetes; Obesity; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Diabetes; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
     <t>Influenza; Nutrition; Respiratory Tract Infections; Infections</t>
   </si>
   <si>
-    <t>Novel Biosensing and VOC; Biosensor Technology; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Novel Biosensing and VOC; Biosensor Technology; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
     <t>Health Behaviors; Social Determinants of Health; Aging; Behavior</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Social Determinants of Health; Community Outreach Programs; Children; Pregnancy; Nutrition; Intervention or Procedure; Age Related Group; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Mental Health; Substance Use; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Virological Testing; Disease Surveillance; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Virological Testing; At-Home Testing; Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Virological Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Virological Testing; Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Disease Surveillance; Virological Testing; Community Outreach Programs; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Screening Testing; Social Determinants of Health; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; COVID Hotspots; COVID Testing Deserts; Virological Testing; Community Outreach Programs; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Digital Health Applications; Children; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID Hotspots; COVID Testing Deserts; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Nutrition; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Social Determinants of Health; Community Outreach Programs; Children; Pregnancy; Nutrition; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Mental Health; Substance Use; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Virological Testing; Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Virological Testing; At-Home Testing; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Virological Testing; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Disease Surveillance; Virological Testing; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Screening Testing; Social Determinants of Health; Children; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; COVID Hotspots; COVID Testing Deserts; Virological Testing; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Digital Health Applications; Children; Aging; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID Hotspots; COVID Testing Deserts; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Nutrition; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
   </si>
   <si>
     <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
   </si>
   <si>
-    <t>Virological Testing; Cancer; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Intervention or Procedure; COVID-19-Related Disorders; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Virological Testing; Next Generation Sequencing (NGS); Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Virological Testing; Cancer; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Virological Testing; Next Generation Sequencing (NGS); Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
     <t>Comorbidities; Vaccination Rate/Uptake; Aging; Intervention or Procedure; Vaccination</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Comorbidities; Mobile Unit Testing; Community Outreach Programs; Diabetes; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Virological Testing; Serological (Antibody) Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Variants; Children; COVID-19; Population-Based Statistics; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures; Vaccination; Age Related Group; Behavior</t>
+    <t>Testing Rate/Uptake; Comorbidities; Mobile Unit Testing; Community Outreach Programs; Diabetes; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Virological Testing; Serological (Antibody) Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Variants; Children; Population-Based Statistics; Infections; Behavior; Age Related Group; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures; Vaccination</t>
   </si>
   <si>
     <t>Health Behaviors; Substance Use; Behavior</t>
   </si>
   <si>
-    <t>COVID in School Settings; Diagnostic Testing; COVID Hotspots; Social Determinants of Health; Children; Aging; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Point-of-Care (POC) Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Social Determinants of Health; Influenza; Aging; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Disease Surveillance; Children; Aging; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
+    <t>COVID in School Settings; Diagnostic Testing; COVID Hotspots; Social Determinants of Health; Children; Aging; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Point-of-Care (POC) Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Social Determinants of Health; Influenza; Aging; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Disease Surveillance; Children; Aging; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
   </si>
   <si>
     <t>Social Determinants of Health</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; COVID Hotspots; Substance Use; Community Outreach Programs; Cancer; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Serological (Antibody) Testing; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Diagnostic Testing; COVID Hotspots; Substance Use; Community Outreach Programs; Cancer; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Serological (Antibody) Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
     <t>Testing Rate/Uptake; COVID Testing Deserts; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
   </si>
   <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Intervention or Procedure; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Antigen Testing; COVID in School Settings; Screening Testing; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Diagnostic Testing; Health Behaviors; Mental Health; Serological (Antibody) Testing; Pregnancy; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Virological Testing; Biosensor Technology; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Aging; Nutrition; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Digital Health Applications; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Long COVID; COVID-19; Intervention or Procedure; COVID-19-Related Disorders; Diagnostic Techniques and Procedures; Infections; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Diagnostic Testing; Wastewater Surveillance; Virological Testing; Children; Disease Surveillance; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Diabetes; Obesity; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Seroprevalence; Virological Testing; Serological (Antibody) Testing; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Virological Testing; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; COVID Testing Deserts; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Aging; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Social Determinants of Health; Children; Population-Based Statistics; Age Related Group; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Social Determinants of Health; Community Outreach Programs; Diabetes; Obesity; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Behavior</t>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Behavior; Intervention or Procedure; Vaccination</t>
+  </si>
+  <si>
+    <t>Antigen Testing; COVID in School Settings; Screening Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Diagnostic Testing; Health Behaviors; Mental Health; Serological (Antibody) Testing; Pregnancy; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Virological Testing; Biosensor Technology; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Aging; Nutrition; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Digital Health Applications; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Long COVID; Infections; Behavioral Psychological or Informational Intervention; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures; Vaccination; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Diagnostic Testing; Wastewater Surveillance; Virological Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Diabetes; Obesity; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Seroprevalence; Virological Testing; Serological (Antibody) Testing; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Virological Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; COVID Testing Deserts; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Aging; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Social Determinants of Health; Children; Population-Based Statistics; Behavior; Age Related Group</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Social Determinants of Health; Community Outreach Programs; Diabetes; Obesity; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure</t>
   </si>
   <si>
     <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Digital Health Applications; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Substance Use; Mobile Unit Testing; Social Determinants of Health; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Comorbidities; Digital Health Applications; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Variants; Aging; COVID-19; Disease Surveillance; Intervention or Procedure; Infections</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Mental Health; Virological Testing; Vaccination Rate/Uptake; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Age Related Group</t>
-  </si>
-  <si>
-    <t>Antigen Testing; Social Determinants of Health; Community Outreach Programs; Digital Health Applications; Children; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Biosensor Technology; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Diagnostic Testing; Social Determinants of Health; Children; Aging; Nutrition; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Variants; Social Determinants of Health; Aging; COVID-19; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Community Outreach Programs; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Serological (Antibody) Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Diabetes; Obesity; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Age Related Group; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Mental Health; Virological Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Antigen Testing; COVID in School Settings; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Age Related Group; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Community Outreach Programs; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Variants; Social Determinants of Health; Aging; COVID-19; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination; Behavior</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Disease Surveillance; Social Determinants of Health; Children; Population-Based Statistics; Intervention or Procedure; Age Related Group; Behavior</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Influenza; Respiratory Tract Infections; Intervention or Procedure; Infections; Diagnostic Techniques and Procedures; Vaccination; Behavioral Psychological or Informational Intervention; Behavior</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Community Outreach Programs; Intervention or Procedure; Diagnostic Techniques and Procedures; Behavioral Psychological or Informational Intervention</t>
+    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Substance Use; Mobile Unit Testing; Social Determinants of Health; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Comorbidities; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Variants; Aging; Infections; Intervention or Procedure; COVID-19; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Mental Health; Virological Testing; Vaccination Rate/Uptake; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Antigen Testing; Social Determinants of Health; Community Outreach Programs; Digital Health Applications; Children; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Biosensor Technology; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Diagnostic Testing; Social Determinants of Health; Children; Aging; Nutrition; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Variants; Social Determinants of Health; Aging; Infections; Behavior; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Serological (Antibody) Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Diabetes; Obesity; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Mental Health; Virological Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Influenza; Infections; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Antigen Testing; COVID in School Settings; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Variants; Social Determinants of Health; Aging; Infections; Behavior; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Disease Surveillance; Social Determinants of Health; Children; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Influenza; Infections; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
   </si>
   <si>
     <t>Hispanic and Latino; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Children; School Community Members; People Living with HIV/AIDs; Underserved/Vulnerable Population; Older Adults or Elderly; Adults; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions; Age Related Group</t>
+    <t>Children; School Community Members; People Living with HIV/AIDs; Underserved/Vulnerable Population; Older Adults or Elderly; Adults; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>School Community Members; Intellectual and Developmental Disabilities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
@@ -1624,7 +1615,7 @@
     <t>Adults; Age Related Group</t>
   </si>
   <si>
-    <t>Native Hawaiian or other Pacific Islander; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Asian American Native Hawaiian and Pacific Islander</t>
+    <t>Native Hawaiian or other Pacific Islander; Underserved/Vulnerable Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Older Adults or Elderly; Adults; Age Related Group</t>
@@ -1636,10 +1627,10 @@
     <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
-    <t>Children; Underserved/Vulnerable Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Native Hawaiian or other Pacific Islander; Rural Communities; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
+    <t>Children; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Native Hawaiian or other Pacific Islander; Rural Communities; Lower Socioeconomic Status (SES) Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Health Disparate Minority and Vulnerable Populations</t>
@@ -1660,7 +1651,7 @@
     <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
-    <t>African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Adults; Underserved/Vulnerable Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+    <t>African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1672,25 +1663,25 @@
     <t>African American; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Racial and Ethnic Minorities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>African American; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Children; Sexual and Gender Minorities; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+    <t>Racial and Ethnic Minorities; Children; Sexual and Gender Minorities; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; Essential Workers; Rural Communities; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Asian; Underserved/Vulnerable Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Dialysis Patients; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions</t>
-  </si>
-  <si>
-    <t>People Living with HIV/AIDs; Sexual and Gender Minorities; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions</t>
+    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Asian; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Dialysis Patients; Underserved/Vulnerable Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>People Living with HIV/AIDs; Sexual and Gender Minorities; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Hispanic and Latino; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
@@ -1711,13 +1702,13 @@
     <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; African American; People Living with HIV/AIDs; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions</t>
-  </si>
-  <si>
-    <t>Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or other Pacific Islander; Health Disparate Minority and Vulnerable Populations; Asian American Native Hawaiian and Pacific Islander</t>
+    <t>Racial and Ethnic Minorities; African American; People Living with HIV/AIDs; Underserved/Vulnerable Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or other Pacific Islander; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
@@ -1729,19 +1720,19 @@
     <t>African American; Children; School Community Members; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
   </si>
   <si>
-    <t>Immigrants; Homeless/Unhoused; People Living with HIV/AIDs; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
+    <t>Immigrants; Homeless/Unhoused; People Living with HIV/AIDs; Lower Socioeconomic Status (SES) Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Homeless/Unhoused; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
-    <t>Children; Underserved/Vulnerable Population; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+    <t>Children; Underserved/Vulnerable Population; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
   </si>
   <si>
     <t>Hispanic and Latino; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Asian; Health Disparate Minority and Vulnerable Populations; Asian American Native Hawaiian and Pacific Islander</t>
+    <t>Asian; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
@@ -1750,7 +1741,7 @@
     <t>Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Children; Intellectual and Developmental Disabilities; Age Related Group; Vulnerable Populations Due to Health Conditions</t>
+    <t>Children; Intellectual and Developmental Disabilities; Vulnerable Populations Due to Health Conditions; Age Related Group</t>
   </si>
   <si>
     <t>People Living with HIV/AIDs; Vulnerable Populations Due to Health Conditions</t>
@@ -1762,7 +1753,7 @@
     <t>African American; Hispanic and Latino; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Underserved/Vulnerable Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>African American; Hispanic and Latino; Children; School Community Members; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
@@ -1780,7 +1771,7 @@
     <t>Racial and Ethnic Minorities; Hispanic and Latino; Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
   </si>
   <si>
-    <t>Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions; Age Related Group</t>
+    <t>Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Pregnant (or Nursing) Women; Vulnerable Populations Due to Health Conditions</t>
@@ -1804,7 +1795,7 @@
     <t>Racial and Ethnic Minorities</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Asian; Health Disparate Minority and Vulnerable Populations; Asian American Native Hawaiian and Pacific Islander</t>
+    <t>Racial and Ethnic Minorities; Asian; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1828,7 +1819,7 @@
     <t>Racial and Ethnic Minorities; Incarcerated/Institutionalized (or Criminal Legal System Involvement); Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions</t>
+    <t>Racial and Ethnic Minorities; Dialysis Patients; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1837,16 +1828,16 @@
     <t>Incarcerated/Institutionalized (or Criminal Legal System Involvement); Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
-    <t>Hispanic and Latino; Children; School Community Members; Rural Communities; Underserved/Vulnerable Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Immigrants; Children; School Community Members; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Hispanic and Latino; Children; School Community Members; Rural Communities; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Immigrants; Children; School Community Members; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>People Living with HIV/AIDs; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Vulnerable Populations Due to Health Conditions</t>
+    <t>People Living with HIV/AIDs; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; Hispanic and Latino; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1861,19 +1852,19 @@
     <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
   </si>
   <si>
-    <t>Native Hawaiian or other Pacific Islander; Asian; Children; School Community Members; Rural Communities; Older Adults or Elderly; Adults; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Asian American Native Hawaiian and Pacific Islander; Age Related Group</t>
+    <t>Native Hawaiian or other Pacific Islander; Asian; Children; School Community Members; Rural Communities; Older Adults or Elderly; Adults; Asian American Native Hawaiian and Pacific Islander; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>Essential Workers</t>
   </si>
   <si>
-    <t>Homeless/Unhoused; Sexual and Gender Minorities; Rural Communities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Underserved/Vulnerable Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Asian; Essential Workers; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Asian American Native Hawaiian and Pacific Islander</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Children; School Community Members; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Homeless/Unhoused; Sexual and Gender Minorities; Rural Communities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Asian; Essential Workers; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Children; School Community Members; Lower Socioeconomic Status (SES) Population; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
   </si>
   <si>
     <t>Underserved/Vulnerable Population; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
@@ -2146,22 +2137,19 @@
     <t>phs002543; phs002546; phs002565; phs002573; phs002647; phs002700; phs002744</t>
   </si>
   <si>
-    <t>phs002561; phs002567; phs002578; phs002634; phs002662; phs002685; phs003366</t>
-  </si>
-  <si>
     <t>phs002524; phs002550; phs002570; phs002572; phs002642; phs002702</t>
   </si>
   <si>
     <t>phs002581; phs002658; phs002871; phs003083; phs003374; phs003375</t>
   </si>
   <si>
+    <t>phs002561; phs002634; phs002662; phs002685; phs003366</t>
+  </si>
+  <si>
     <t>phs002578; phs002657; phs003032; phs003373; phs003595</t>
   </si>
   <si>
     <t>phs002708; phs002763; phs002782; phs002791; phs003371</t>
-  </si>
-  <si>
-    <t>phs002561; phs002662; phs002685; phs003366</t>
   </si>
   <si>
     <t>phs002523; phs002568; phs002645</t>
@@ -2722,25 +2710,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19</c:v>
@@ -4380,16 +4368,16 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4407,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4425,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4443,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4461,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4479,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4497,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4514,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4532,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4550,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4568,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4586,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4604,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4622,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4640,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4658,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4676,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4733,16 +4721,16 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4760,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4778,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4796,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4814,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4832,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4850,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4868,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4886,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4904,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4922,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4920,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4949,16 +4937,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4976,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4994,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5012,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5030,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5048,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5066,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5084,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5102,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5120,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5138,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5156,30 +5144,30 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIH%22%5D%7D%5D", "NIH")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCR%22%5D%7D%5D", "NIDCR")</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCR%22%5D%7D%5D", "NIDCR")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAID%22%5D%7D%5D", "NIAID")</f>
         <v>0</v>
       </c>
       <c r="B14">
@@ -5192,25 +5180,24 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAID%22%5D%7D%5D", "NIAID")</f>
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>354</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>0.03370786516853932</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5228,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5246,30 +5233,30 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIH OD%22%5D%7D%5D", "NIH OD")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NINR%22%5D%7D%5D", "NINR")</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NINR%22%5D%7D%5D", "NINR")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCD%22%5D%7D%5D", "NIDCD")</f>
         <v>0</v>
       </c>
       <c r="B19">
@@ -5282,48 +5269,48 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIDCD%22%5D%7D%5D", "NIDCD")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NLM%22%5D%7D%5D", "NLM")</f>
         <v>0</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NLM%22%5D%7D%5D", "NLM")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NCCIH%22%5D%7D%5D", "NCCIH")</f>
         <v>0</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>712</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NCCIH%22%5D%7D%5D", "NCCIH")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAMS%22%5D%7D%5D", "NIAMS")</f>
         <v>0</v>
       </c>
       <c r="B22">
@@ -5336,12 +5323,12 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NIAMS%22%5D%7D%5D", "NIAMS")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NDA%22%5D%7D%5D", "NDA")</f>
         <v>0</v>
       </c>
       <c r="B23">
@@ -5354,24 +5341,6 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22institutes_supporting_study_array%22,%22facets%22:%5B%22NDA%22%5D%7D%5D", "NDA")</f>
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5393,16 +5362,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5420,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5438,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5456,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5474,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5492,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5510,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5528,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5546,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5564,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5582,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -5609,21 +5578,21 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B2">
         <v>159</v>
@@ -5635,12 +5604,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B3">
         <v>145</v>
@@ -5652,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5670,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5688,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5706,12 +5675,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -5723,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5741,12 +5710,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -5758,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5776,12 +5745,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B11">
         <v>36</v>
@@ -5793,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5811,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5829,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5847,12 +5816,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -5864,12 +5833,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -5881,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5899,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5917,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5935,12 +5904,12 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5952,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5970,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5988,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6006,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6024,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6042,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6060,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6078,12 +6047,12 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -6095,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6113,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6131,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6149,12 +6118,12 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -6166,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6184,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6202,12 +6171,12 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -6219,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6237,12 +6206,12 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -6254,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6272,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6290,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6308,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6326,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6344,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6362,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6380,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6398,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6416,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6434,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6452,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6470,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6488,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6506,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6524,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6617,16 +6586,16 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6644,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6662,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6680,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6698,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6716,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6734,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6752,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6770,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6788,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6806,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -6833,16 +6802,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6860,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6878,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6896,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6914,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6932,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6950,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6968,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7007,16 +6976,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7034,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7052,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7070,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7088,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7106,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7124,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7142,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -7169,21 +7138,21 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B2">
         <v>108</v>
@@ -7195,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7213,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7230,12 +7199,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B5">
         <v>45</v>
@@ -7247,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7265,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7283,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7301,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7319,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7337,12 +7306,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -7354,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7372,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7390,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7408,12 +7377,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -7425,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7443,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7461,12 +7430,12 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -7478,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7496,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7514,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7532,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7550,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7568,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7586,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7604,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7622,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7640,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7658,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -7679,16 +7648,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7706,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7724,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7742,12 +7711,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -7759,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7777,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7795,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7813,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7831,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7849,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7867,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -7956,13 +7925,13 @@
         <v>342</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H2" t="s">
         <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J2">
         <v>300</v>
@@ -7988,13 +7957,13 @@
         <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H3" t="s">
         <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J3">
         <v>40</v>
@@ -8020,13 +7989,13 @@
         <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J4">
         <v>132</v>
@@ -8052,13 +8021,13 @@
         <v>344</v>
       </c>
       <c r="G5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J5">
         <v>4000</v>
@@ -8084,13 +8053,13 @@
         <v>345</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H6" t="s">
         <v>302</v>
       </c>
       <c r="I6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -8116,13 +8085,13 @@
         <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J7">
         <v>3700</v>
@@ -8148,13 +8117,13 @@
         <v>347</v>
       </c>
       <c r="G8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J8">
         <v>800</v>
@@ -8180,13 +8149,13 @@
         <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J9">
         <v>30000</v>
@@ -8212,13 +8181,13 @@
         <v>343</v>
       </c>
       <c r="G10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J10">
         <v>7000</v>
@@ -8244,13 +8213,13 @@
         <v>348</v>
       </c>
       <c r="G11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H11" t="s">
         <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8276,13 +8245,13 @@
         <v>342</v>
       </c>
       <c r="G12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H12" t="s">
         <v>302</v>
       </c>
       <c r="I12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -8308,13 +8277,13 @@
         <v>349</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -8340,13 +8309,13 @@
         <v>349</v>
       </c>
       <c r="G14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J14">
         <v>23</v>
@@ -8372,13 +8341,13 @@
         <v>342</v>
       </c>
       <c r="G15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H15" t="s">
         <v>302</v>
       </c>
       <c r="I15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J15">
         <v>95</v>
@@ -8404,13 +8373,13 @@
         <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H16" t="s">
         <v>302</v>
       </c>
       <c r="I16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J16">
         <v>3034</v>
@@ -8436,13 +8405,13 @@
         <v>342</v>
       </c>
       <c r="G17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H17" t="s">
         <v>302</v>
       </c>
       <c r="I17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J17">
         <v>4312</v>
@@ -8468,13 +8437,13 @@
         <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H18" t="s">
         <v>302</v>
       </c>
       <c r="I18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J18">
         <v>627</v>
@@ -8500,13 +8469,13 @@
         <v>344</v>
       </c>
       <c r="G19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I19" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J19">
         <v>24</v>
@@ -8532,13 +8501,13 @@
         <v>351</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H20" t="s">
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -8564,13 +8533,13 @@
         <v>352</v>
       </c>
       <c r="G21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H21" t="s">
         <v>302</v>
       </c>
       <c r="I21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -8596,13 +8565,13 @@
         <v>351</v>
       </c>
       <c r="G22" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H22" t="s">
         <v>302</v>
       </c>
       <c r="I22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -8628,13 +8597,13 @@
         <v>353</v>
       </c>
       <c r="G23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H23" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J23">
         <v>1004</v>
@@ -8660,13 +8629,13 @@
         <v>347</v>
       </c>
       <c r="G24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H24" t="s">
         <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -8692,13 +8661,13 @@
         <v>343</v>
       </c>
       <c r="G25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I25" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J25">
         <v>3864</v>
@@ -8724,13 +8693,13 @@
         <v>353</v>
       </c>
       <c r="G26" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I26" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J26">
         <v>16445</v>
@@ -8759,7 +8728,7 @@
         <v>302</v>
       </c>
       <c r="I27" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J27">
         <v>800</v>
@@ -8785,13 +8754,13 @@
         <v>352</v>
       </c>
       <c r="G28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H28" t="s">
         <v>302</v>
       </c>
       <c r="I28" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J28">
         <v>900</v>
@@ -8817,13 +8786,13 @@
         <v>351</v>
       </c>
       <c r="G29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H29" t="s">
         <v>302</v>
       </c>
       <c r="I29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J29">
         <v>1200</v>
@@ -8846,16 +8815,16 @@
         <v>317</v>
       </c>
       <c r="F30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J30">
         <v>400</v>
@@ -8881,13 +8850,13 @@
         <v>346</v>
       </c>
       <c r="G31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I31" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -8913,13 +8882,13 @@
         <v>353</v>
       </c>
       <c r="G32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H32" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I32" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8945,13 +8914,13 @@
         <v>347</v>
       </c>
       <c r="G33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H33" t="s">
         <v>302</v>
       </c>
       <c r="I33" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J33">
         <v>23</v>
@@ -8977,13 +8946,13 @@
         <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H34" t="s">
         <v>302</v>
       </c>
       <c r="I34" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -9009,13 +8978,13 @@
         <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H35" t="s">
         <v>302</v>
       </c>
       <c r="I35" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J35">
         <v>95</v>
@@ -9041,13 +9010,13 @@
         <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H36" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J36">
         <v>83000</v>
@@ -9070,16 +9039,16 @@
         <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H37" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I37" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J37">
         <v>960</v>
@@ -9102,16 +9071,16 @@
         <v>305</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H38" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I38" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J38">
         <v>1050</v>
@@ -9134,16 +9103,16 @@
         <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H39" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I39" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J39">
         <v>500</v>
@@ -9169,13 +9138,13 @@
         <v>345</v>
       </c>
       <c r="G40" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H40" t="s">
         <v>302</v>
       </c>
       <c r="I40" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J40">
         <v>500</v>
@@ -9201,13 +9170,13 @@
         <v>344</v>
       </c>
       <c r="G41" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H41" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I41" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J41">
         <v>11200</v>
@@ -9233,13 +9202,13 @@
         <v>353</v>
       </c>
       <c r="G42" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H42" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I42" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J42">
         <v>7200</v>
@@ -9265,13 +9234,13 @@
         <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H43" t="s">
         <v>302</v>
       </c>
       <c r="I43" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J43">
         <v>400</v>
@@ -9297,13 +9266,13 @@
         <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H44" t="s">
         <v>302</v>
       </c>
       <c r="I44" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J44">
         <v>700</v>
@@ -9329,13 +9298,13 @@
         <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H45" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I45" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J45">
         <v>2400</v>
@@ -9361,13 +9330,13 @@
         <v>345</v>
       </c>
       <c r="G46" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H46" t="s">
         <v>302</v>
       </c>
       <c r="I46" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J46">
         <v>50</v>
@@ -9393,13 +9362,13 @@
         <v>353</v>
       </c>
       <c r="G47" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H47" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I47" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J47">
         <v>150</v>
@@ -9425,13 +9394,13 @@
         <v>344</v>
       </c>
       <c r="G48" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H48" t="s">
         <v>302</v>
       </c>
       <c r="I48" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J48">
         <v>100</v>
@@ -9457,13 +9426,13 @@
         <v>344</v>
       </c>
       <c r="G49" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H49" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I49" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J49">
         <v>2050</v>
@@ -9489,13 +9458,13 @@
         <v>353</v>
       </c>
       <c r="G50" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H50" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I50" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J50">
         <v>660</v>
@@ -9521,13 +9490,13 @@
         <v>343</v>
       </c>
       <c r="G51" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H51" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I51" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J51">
         <v>500</v>
@@ -9553,13 +9522,13 @@
         <v>342</v>
       </c>
       <c r="G52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H52" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I52" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J52">
         <v>800</v>
@@ -9585,13 +9554,13 @@
         <v>352</v>
       </c>
       <c r="G53" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H53" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I53" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J53">
         <v>3000</v>
@@ -9617,13 +9586,13 @@
         <v>342</v>
       </c>
       <c r="G54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H54" t="s">
         <v>302</v>
       </c>
       <c r="I54" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J54">
         <v>1000</v>
@@ -9646,16 +9615,16 @@
         <v>326</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H55" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I55" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J55">
         <v>2000</v>
@@ -9678,16 +9647,16 @@
         <v>318</v>
       </c>
       <c r="F56" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H56" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I56" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J56">
         <v>2000</v>
@@ -9710,16 +9679,16 @@
         <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G57" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H57" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I57" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J57">
         <v>670</v>
@@ -9748,7 +9717,7 @@
         <v>302</v>
       </c>
       <c r="I58" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J58">
         <v>2750</v>
@@ -9774,13 +9743,13 @@
         <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H59" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I59" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J59">
         <v>2000</v>
@@ -9806,13 +9775,13 @@
         <v>352</v>
       </c>
       <c r="G60" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H60" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I60" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J60">
         <v>6000</v>
@@ -9838,13 +9807,13 @@
         <v>346</v>
       </c>
       <c r="G61" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H61" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I61" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J61">
         <v>5000</v>
@@ -9870,13 +9839,13 @@
         <v>351</v>
       </c>
       <c r="G62" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H62" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I62" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J62">
         <v>1250</v>
@@ -9899,16 +9868,16 @@
         <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G63" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H63" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I63" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J63">
         <v>227</v>
@@ -9934,13 +9903,13 @@
         <v>342</v>
       </c>
       <c r="G64" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H64" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I64" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J64">
         <v>15000</v>
@@ -9966,13 +9935,13 @@
         <v>344</v>
       </c>
       <c r="G65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H65" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I65" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J65">
         <v>3034</v>
@@ -9995,16 +9964,16 @@
         <v>330</v>
       </c>
       <c r="F66" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G66" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H66" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I66" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J66">
         <v>120</v>
@@ -10027,16 +9996,16 @@
         <v>305</v>
       </c>
       <c r="F67" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G67" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H67" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I67" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J67">
         <v>2000</v>
@@ -10062,13 +10031,13 @@
         <v>344</v>
       </c>
       <c r="G68" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H68" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I68" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J68">
         <v>4312</v>
@@ -10094,13 +10063,13 @@
         <v>353</v>
       </c>
       <c r="G69" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H69" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I69" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J69">
         <v>627</v>
@@ -10126,13 +10095,13 @@
         <v>354</v>
       </c>
       <c r="G70" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H70" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I70" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J70">
         <v>300</v>
@@ -10158,13 +10127,13 @@
         <v>344</v>
       </c>
       <c r="G71" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H71" t="s">
         <v>302</v>
       </c>
       <c r="I71" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J71">
         <v>108</v>
@@ -10187,16 +10156,16 @@
         <v>331</v>
       </c>
       <c r="F72" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G72" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H72" t="s">
         <v>302</v>
       </c>
       <c r="I72" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J72">
         <v>488</v>
@@ -10222,13 +10191,13 @@
         <v>354</v>
       </c>
       <c r="G73" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H73" t="s">
         <v>302</v>
       </c>
       <c r="I73" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J73">
         <v>10</v>
@@ -10251,16 +10220,16 @@
         <v>313</v>
       </c>
       <c r="F74" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G74" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H74" t="s">
         <v>302</v>
       </c>
       <c r="I74" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J74">
         <v>60</v>
@@ -10283,16 +10252,16 @@
         <v>326</v>
       </c>
       <c r="F75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G75" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H75" t="s">
         <v>302</v>
       </c>
       <c r="I75" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J75">
         <v>16360</v>
@@ -10318,13 +10287,13 @@
         <v>351</v>
       </c>
       <c r="G76" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H76" t="s">
         <v>302</v>
       </c>
       <c r="I76" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J76">
         <v>24</v>
@@ -10350,13 +10319,13 @@
         <v>347</v>
       </c>
       <c r="G77" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H77" t="s">
         <v>302</v>
       </c>
       <c r="I77" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -10379,16 +10348,16 @@
         <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G78" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H78" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I78" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J78">
         <v>2000</v>
@@ -10411,16 +10380,16 @@
         <v>305</v>
       </c>
       <c r="F79" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G79" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H79" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I79" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J79">
         <v>2025</v>
@@ -10443,16 +10412,16 @@
         <v>305</v>
       </c>
       <c r="F80" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G80" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H80" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I80" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J80">
         <v>10000</v>
@@ -10481,7 +10450,7 @@
         <v>302</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J81">
         <v>100</v>
@@ -10507,13 +10476,13 @@
         <v>342</v>
       </c>
       <c r="G82" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H82" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J82">
         <v>150</v>
@@ -10539,13 +10508,13 @@
         <v>344</v>
       </c>
       <c r="G83" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H83" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I83" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J83">
         <v>250</v>
@@ -10571,13 +10540,13 @@
         <v>344</v>
       </c>
       <c r="G84" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H84" t="s">
         <v>302</v>
       </c>
       <c r="I84" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J84">
         <v>20</v>
@@ -10600,16 +10569,16 @@
         <v>332</v>
       </c>
       <c r="F85" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G85" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H85" t="s">
         <v>302</v>
       </c>
       <c r="I85" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J85">
         <v>341</v>
@@ -10632,16 +10601,16 @@
         <v>332</v>
       </c>
       <c r="F86" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G86" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H86" t="s">
         <v>302</v>
       </c>
       <c r="I86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J86">
         <v>285</v>
@@ -10664,16 +10633,16 @@
         <v>333</v>
       </c>
       <c r="F87" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G87" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H87" t="s">
         <v>302</v>
       </c>
       <c r="I87" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J87">
         <v>187</v>
@@ -10696,16 +10665,16 @@
         <v>334</v>
       </c>
       <c r="F88" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H88" t="s">
         <v>302</v>
       </c>
       <c r="I88" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J88">
         <v>206</v>
@@ -10731,13 +10700,13 @@
         <v>353</v>
       </c>
       <c r="G89" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H89" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I89" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J89">
         <v>750</v>
@@ -10763,13 +10732,13 @@
         <v>343</v>
       </c>
       <c r="G90" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H90" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I90" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J90">
         <v>650</v>
@@ -10792,16 +10761,16 @@
         <v>331</v>
       </c>
       <c r="F91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G91" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H91" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I91" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J91">
         <v>4800</v>
@@ -10827,13 +10796,13 @@
         <v>342</v>
       </c>
       <c r="G92" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H92" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I92" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J92">
         <v>200</v>
@@ -10859,13 +10828,13 @@
         <v>351</v>
       </c>
       <c r="G93" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H93" t="s">
         <v>302</v>
       </c>
       <c r="I93" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -10891,13 +10860,13 @@
         <v>343</v>
       </c>
       <c r="G94" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H94" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I94" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J94">
         <v>1800</v>
@@ -10923,13 +10892,13 @@
         <v>352</v>
       </c>
       <c r="G95" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H95" t="s">
         <v>302</v>
       </c>
       <c r="I95" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J95">
         <v>760</v>
@@ -10955,13 +10924,13 @@
         <v>353</v>
       </c>
       <c r="G96" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H96" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I96" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J96">
         <v>5000</v>
@@ -10987,13 +10956,13 @@
         <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H97" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I97" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J97">
         <v>1000</v>
@@ -11019,13 +10988,13 @@
         <v>352</v>
       </c>
       <c r="G98" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H98" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I98" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J98">
         <v>980</v>
@@ -11048,16 +11017,16 @@
         <v>328</v>
       </c>
       <c r="F99" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G99" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H99" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I99" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J99">
         <v>7000</v>
@@ -11080,16 +11049,16 @@
         <v>301</v>
       </c>
       <c r="F100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G100" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H100" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I100" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J100">
         <v>100000</v>
@@ -11115,13 +11084,13 @@
         <v>344</v>
       </c>
       <c r="G101" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I101" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J101">
         <v>240</v>
@@ -11144,16 +11113,16 @@
         <v>301</v>
       </c>
       <c r="F102" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G102" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H102" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I102" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J102">
         <v>500</v>
@@ -11179,13 +11148,13 @@
         <v>352</v>
       </c>
       <c r="G103" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H103" t="s">
         <v>302</v>
       </c>
       <c r="I103" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J103">
         <v>200</v>
@@ -11211,13 +11180,13 @@
         <v>353</v>
       </c>
       <c r="G104" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H104" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I104" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J104">
         <v>800</v>
@@ -11240,16 +11209,16 @@
         <v>302</v>
       </c>
       <c r="F105" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G105" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H105" t="s">
         <v>302</v>
       </c>
       <c r="I105" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J105">
         <v>200</v>
@@ -11272,16 +11241,16 @@
         <v>305</v>
       </c>
       <c r="F106" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G106" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H106" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I106" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J106">
         <v>1235</v>
@@ -11304,16 +11273,16 @@
         <v>305</v>
       </c>
       <c r="F107" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G107" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H107" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I107" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J107">
         <v>22000</v>
@@ -11339,13 +11308,13 @@
         <v>344</v>
       </c>
       <c r="G108" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I108" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J108">
         <v>500</v>
@@ -11371,13 +11340,13 @@
         <v>353</v>
       </c>
       <c r="G109" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H109" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I109" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J109">
         <v>450</v>
@@ -11403,13 +11372,13 @@
         <v>344</v>
       </c>
       <c r="G110" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I110" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J110">
         <v>400</v>
@@ -11435,13 +11404,13 @@
         <v>353</v>
       </c>
       <c r="G111" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H111" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I111" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J111">
         <v>5600</v>
@@ -11467,13 +11436,13 @@
         <v>343</v>
       </c>
       <c r="G112" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H112" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I112" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J112">
         <v>1400</v>
@@ -11496,16 +11465,16 @@
         <v>305</v>
       </c>
       <c r="F113" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G113" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H113" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I113" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J113">
         <v>6000</v>
@@ -11531,13 +11500,13 @@
         <v>353</v>
       </c>
       <c r="G114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H114" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I114" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J114">
         <v>1000</v>
@@ -11560,16 +11529,16 @@
         <v>318</v>
       </c>
       <c r="F115" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G115" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H115" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I115" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J115">
         <v>35000</v>
@@ -11595,13 +11564,13 @@
         <v>342</v>
       </c>
       <c r="G116" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H116" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I116" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J116">
         <v>125000</v>
@@ -11624,16 +11593,16 @@
         <v>305</v>
       </c>
       <c r="F117" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G117" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H117" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I117" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11659,13 +11628,13 @@
         <v>343</v>
       </c>
       <c r="G118" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H118" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I118" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J118">
         <v>2930</v>
@@ -11691,13 +11660,13 @@
         <v>343</v>
       </c>
       <c r="G119" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H119" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I119" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J119">
         <v>487</v>
@@ -11723,13 +11692,13 @@
         <v>353</v>
       </c>
       <c r="G120" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H120" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I120" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J120">
         <v>9000</v>
@@ -11755,13 +11724,13 @@
         <v>353</v>
       </c>
       <c r="G121" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H121" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I121" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J121">
         <v>3000</v>
@@ -11787,13 +11756,13 @@
         <v>353</v>
       </c>
       <c r="G122" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H122" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I122" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J122">
         <v>420</v>
@@ -11819,13 +11788,13 @@
         <v>344</v>
       </c>
       <c r="G123" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H123" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I123" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J123">
         <v>810</v>
@@ -11851,13 +11820,13 @@
         <v>343</v>
       </c>
       <c r="G124" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H124" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I124" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J124">
         <v>300</v>
@@ -11883,13 +11852,13 @@
         <v>348</v>
       </c>
       <c r="G125" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H125" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I125" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J125">
         <v>128</v>
@@ -11915,13 +11884,13 @@
         <v>345</v>
       </c>
       <c r="G126" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H126" t="s">
         <v>302</v>
       </c>
       <c r="I126" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J126">
         <v>50</v>
@@ -11947,13 +11916,13 @@
         <v>353</v>
       </c>
       <c r="G127" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H127" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I127" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J127">
         <v>900</v>
@@ -11979,13 +11948,13 @@
         <v>343</v>
       </c>
       <c r="G128" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H128" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I128" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J128">
         <v>290</v>
@@ -12011,13 +11980,13 @@
         <v>353</v>
       </c>
       <c r="G129" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H129" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I129" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J129">
         <v>350</v>
@@ -12043,13 +12012,13 @@
         <v>344</v>
       </c>
       <c r="G130" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H130" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I130" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J130">
         <v>7000</v>
@@ -12072,16 +12041,16 @@
         <v>326</v>
       </c>
       <c r="F131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G131" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H131" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I131" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J131">
         <v>6000</v>
@@ -12107,13 +12076,13 @@
         <v>343</v>
       </c>
       <c r="G132" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H132" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I132" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J132">
         <v>1400</v>
@@ -12136,13 +12105,13 @@
         <v>337</v>
       </c>
       <c r="F133" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H133" t="s">
         <v>302</v>
       </c>
       <c r="I133" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J133">
         <v>200</v>
@@ -12165,16 +12134,16 @@
         <v>314</v>
       </c>
       <c r="F134" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G134" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H134" t="s">
         <v>302</v>
       </c>
       <c r="I134" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J134">
         <v>1721</v>
@@ -12200,13 +12169,13 @@
         <v>343</v>
       </c>
       <c r="G135" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H135" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I135" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J135">
         <v>1090</v>
@@ -12232,13 +12201,13 @@
         <v>343</v>
       </c>
       <c r="G136" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H136" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I136" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J136">
         <v>1200</v>
@@ -12264,13 +12233,13 @@
         <v>353</v>
       </c>
       <c r="G137" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H137" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I137" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J137">
         <v>1800</v>
@@ -12293,16 +12262,16 @@
         <v>301</v>
       </c>
       <c r="F138" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G138" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H138" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I138" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J138">
         <v>105</v>
@@ -12325,16 +12294,16 @@
         <v>305</v>
       </c>
       <c r="F139" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G139" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H139" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I139" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J139">
         <v>1200</v>
@@ -12360,13 +12329,13 @@
         <v>353</v>
       </c>
       <c r="G140" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H140" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I140" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J140">
         <v>1004</v>
@@ -12392,13 +12361,13 @@
         <v>343</v>
       </c>
       <c r="G141" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I141" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J141">
         <v>300</v>
@@ -12421,16 +12390,16 @@
         <v>305</v>
       </c>
       <c r="F142" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G142" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H142" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I142" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J142">
         <v>4900</v>
@@ -12456,13 +12425,13 @@
         <v>343</v>
       </c>
       <c r="G143" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H143" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I143" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J143">
         <v>448</v>
@@ -12488,13 +12457,13 @@
         <v>353</v>
       </c>
       <c r="G144" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H144" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I144" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J144">
         <v>2400</v>
@@ -12520,13 +12489,13 @@
         <v>342</v>
       </c>
       <c r="G145" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H145" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I145" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -12552,13 +12521,13 @@
         <v>343</v>
       </c>
       <c r="G146" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H146" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I146" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J146">
         <v>30</v>
@@ -12584,13 +12553,13 @@
         <v>343</v>
       </c>
       <c r="G147" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H147" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I147" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J147">
         <v>508</v>
@@ -12613,16 +12582,16 @@
         <v>327</v>
       </c>
       <c r="F148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G148" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H148" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I148" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J148">
         <v>2480</v>
@@ -12648,13 +12617,13 @@
         <v>344</v>
       </c>
       <c r="G149" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H149" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I149" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J149">
         <v>500</v>
@@ -12680,13 +12649,13 @@
         <v>352</v>
       </c>
       <c r="G150" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H150" t="s">
         <v>302</v>
       </c>
       <c r="I150" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -12709,16 +12678,16 @@
         <v>301</v>
       </c>
       <c r="F151" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G151" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H151" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I151" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J151">
         <v>98</v>
@@ -12744,13 +12713,13 @@
         <v>344</v>
       </c>
       <c r="G152" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H152" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I152" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J152">
         <v>40</v>
@@ -12776,13 +12745,13 @@
         <v>353</v>
       </c>
       <c r="G153" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H153" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I153" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J153">
         <v>900</v>
@@ -12808,13 +12777,13 @@
         <v>353</v>
       </c>
       <c r="G154" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H154" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I154" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J154">
         <v>800</v>
@@ -12840,13 +12809,13 @@
         <v>343</v>
       </c>
       <c r="G155" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H155" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I155" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J155">
         <v>800</v>
@@ -12869,13 +12838,13 @@
         <v>317</v>
       </c>
       <c r="F156" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H156" t="s">
         <v>302</v>
       </c>
       <c r="I156" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J156">
         <v>7361</v>
@@ -12898,16 +12867,16 @@
         <v>338</v>
       </c>
       <c r="F157" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G157" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H157" t="s">
         <v>302</v>
       </c>
       <c r="I157" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J157">
         <v>3864</v>
@@ -12930,13 +12899,13 @@
         <v>317</v>
       </c>
       <c r="F158" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H158" t="s">
         <v>302</v>
       </c>
       <c r="I158" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J158">
         <v>619</v>
@@ -12962,13 +12931,13 @@
         <v>353</v>
       </c>
       <c r="G159" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H159" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I159" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J159">
         <v>6200</v>
@@ -12991,13 +12960,13 @@
         <v>339</v>
       </c>
       <c r="F160" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H160" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I160" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J160">
         <v>300</v>
@@ -13023,13 +12992,13 @@
         <v>344</v>
       </c>
       <c r="G161" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H161" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I161" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J161">
         <v>16445</v>
@@ -13055,13 +13024,13 @@
         <v>344</v>
       </c>
       <c r="G162" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H162" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I162" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J162">
         <v>390</v>
@@ -13087,13 +13056,13 @@
         <v>343</v>
       </c>
       <c r="G163" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H163" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I163" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J163">
         <v>1500</v>
@@ -13119,13 +13088,13 @@
         <v>343</v>
       </c>
       <c r="G164" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H164" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I164" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J164">
         <v>500</v>
@@ -13151,13 +13120,13 @@
         <v>354</v>
       </c>
       <c r="G165" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H165" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I165" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J165">
         <v>20000</v>
@@ -13183,13 +13152,13 @@
         <v>343</v>
       </c>
       <c r="G166" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H166" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I166" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J166">
         <v>40000</v>
@@ -13212,16 +13181,16 @@
         <v>305</v>
       </c>
       <c r="F167" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G167" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H167" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I167" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J167">
         <v>300</v>
@@ -13244,16 +13213,16 @@
         <v>301</v>
       </c>
       <c r="F168" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G168" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H168" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I168" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J168">
         <v>10000</v>
@@ -13276,16 +13245,16 @@
         <v>341</v>
       </c>
       <c r="F169" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G169" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H169" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I169" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J169">
         <v>2772</v>
@@ -13308,16 +13277,16 @@
         <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G170" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H170" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I170" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J170">
         <v>9650</v>
@@ -13343,13 +13312,13 @@
         <v>353</v>
       </c>
       <c r="G171" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H171" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I171" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J171">
         <v>8050</v>
@@ -13375,13 +13344,13 @@
         <v>343</v>
       </c>
       <c r="G172" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H172" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I172" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -13407,13 +13376,13 @@
         <v>343</v>
       </c>
       <c r="G173" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H173" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I173" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J173">
         <v>800</v>
@@ -13439,13 +13408,13 @@
         <v>343</v>
       </c>
       <c r="G174" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H174" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I174" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J174">
         <v>900</v>
@@ -13471,13 +13440,13 @@
         <v>343</v>
       </c>
       <c r="G175" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H175" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I175" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J175">
         <v>1200</v>
@@ -13503,13 +13472,13 @@
         <v>343</v>
       </c>
       <c r="G176" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H176" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I176" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J176">
         <v>400</v>
@@ -13535,13 +13504,13 @@
         <v>353</v>
       </c>
       <c r="G177" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H177" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I177" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J177">
         <v>30</v>
@@ -13567,13 +13536,13 @@
         <v>342</v>
       </c>
       <c r="G178" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H178" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I178" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -13596,13 +13565,13 @@
         <v>302</v>
       </c>
       <c r="F179" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G179" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H179" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I179" t="s">
         <v>302</v>
@@ -13632,16 +13601,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13659,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13677,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13695,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13713,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -13734,16 +13703,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13761,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13779,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13797,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13815,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -13825,7 +13794,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13842,21 +13811,21 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B2">
         <v>127</v>
@@ -13868,12 +13837,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B3">
         <v>98</v>
@@ -13885,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13903,12 +13872,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -13920,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13938,12 +13907,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -13955,12 +13924,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
         <v>0</v>
       </c>
       <c r="B8">
@@ -13973,138 +13942,138 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>0.1067415730337079</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
         <v>0</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>0.08426966292134831</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
         <v>0</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>0.06741573033707865</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
         <v>0</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>0.02808988764044944</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
         <v>0</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Qualitative%22%5D%7D%5D", "Qualitative")</f>
         <v>0</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>646</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Qualitative%22%5D%7D%5D", "Qualitative")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Open Cohort%22%5D%7D%5D", "Open Cohort")</f>
         <v>0</v>
       </c>
       <c r="B16">
@@ -14117,24 +14086,6 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Open Cohort%22%5D%7D%5D", "Open Cohort")</f>
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
         <v>165</v>
       </c>
     </row>
@@ -14156,147 +14107,147 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Qualitative%22%5D%7D%5D", "Qualitative")</f>
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01123595505617977</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>646</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Time-Series%22%5D%7D%5D", "Time-Series")</f>
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.02247191011235955</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Observational%22%5D%7D%5D", "Observational")</f>
         <v>0</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02808988764044944</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Mixed Methods%22%5D%7D%5D", "Mixed Methods")</f>
         <v>0</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.03932584269662921</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Verification Study%22%5D%7D%5D", "Device Verification Study")</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0.06741573033707865</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Case-Control%22%5D%7D%5D", "Case-Control")</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.08426966292134831</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Cross-Sectional%22%5D%7D%5D", "Cross-Sectional")</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.1067415730337079</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
         <v>0</v>
       </c>
       <c r="B9">
@@ -14309,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14327,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14345,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -14372,16 +14323,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14398,12 +14349,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -14415,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14432,7 +14383,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14449,12 +14400,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B6">
         <v>52</v>
@@ -14466,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14483,12 +14434,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B8">
         <v>21</v>
@@ -14500,12 +14451,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -14517,12 +14468,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -14534,7 +14485,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14551,12 +14502,12 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -14568,12 +14519,12 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -14585,12 +14536,12 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -14602,12 +14553,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -14619,12 +14570,12 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -14636,12 +14587,12 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -14653,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14670,12 +14621,12 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -14692,7 +14643,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -14709,7 +14660,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -14742,16 +14693,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14768,12 +14719,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -14785,12 +14736,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -14802,12 +14753,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -14819,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14836,12 +14787,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -14853,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14870,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14887,12 +14838,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B10">
         <v>78</v>
@@ -14904,7 +14855,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14921,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/reports/2024-05-30 - RADx Data Hub Content Report Semantic.xlsx
+++ b/reports/2024-05-30 - RADx Data Hub Content Report Semantic.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="816">
   <si>
     <t>This workbook collects statistics on studies stored in the RADx Data Hub and provides information on the number of studies corresponding to labels on the studies.</t>
   </si>
@@ -691,7 +691,7 @@
     <t>Observational; Clinical Study</t>
   </si>
   <si>
-    <t>Device Verification Study; Device Validation Study; Validation Study</t>
+    <t>Device Verification Study; Validation Study</t>
   </si>
   <si>
     <t>Mixed Methods</t>
@@ -724,31 +724,46 @@
     <t>Behavioral; Questionnaires/Surveys</t>
   </si>
   <si>
+    <t>Immunological; Other</t>
+  </si>
+  <si>
+    <t>Physical Activity; Questionnaires/Surveys; Other</t>
+  </si>
+  <si>
+    <t>Clinical; Imaging; Other</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Enviornmental (Physical); Genomic; Genotyping; Immunological; Questionnaires/Surveys; Supporting Documents; Other</t>
+  </si>
+  <si>
+    <t>Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Enviornmental (Physical); Immunological; Other</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Physical Activity; Questionnaires/Surveys; Other</t>
-  </si>
-  <si>
-    <t>Clinical; Imaging; Other</t>
-  </si>
-  <si>
-    <t>Clinical; Electronic Medical Records; Genomic; Genotyping; Questionnaires/Surveys; Supporting Documents; Other</t>
-  </si>
-  <si>
-    <t>Questionnaires/Surveys; Social</t>
-  </si>
-  <si>
-    <t>Enviornmental (Physical); Other</t>
-  </si>
-  <si>
     <t>Clinical; Electronic Medical Records; Questionnaires/Surveys; Other</t>
   </si>
   <si>
     <t>Behavioral; Individual Phenotype; Physical Activity; Questionnaires/Surveys; Other</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Questionnaires/Surveys; Supporting Documents; Other</t>
+    <t>Clinical; Electronic Medical Records; Enviornmental (Physical); Questionnaires/Surveys; Supporting Documents; Other</t>
+  </si>
+  <si>
+    <t>Enviornmental (Physical); Questionnaires/Surveys; Other</t>
+  </si>
+  <si>
+    <t>Clinical; Immunological</t>
+  </si>
+  <si>
+    <t>Immunological; Questionnaires/Surveys; Other</t>
+  </si>
+  <si>
+    <t>Clinical; Electronic Medical Records; Family History; Imaging; Immunological; Individual Phenotype; Questionnaires/Surveys; Social; Other</t>
   </si>
   <si>
     <t>Questionnaires/Surveys; Other</t>
@@ -757,13 +772,10 @@
     <t>Clinical</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Family History; Imaging; Individual Phenotype; Questionnaires/Surveys; Social; Other</t>
-  </si>
-  <si>
     <t>Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Family History; Genomic; Individual Genotype; Individual Phenotype; Individual Sequencing; Questionnaires/Surveys</t>
+    <t>Clinical; Electronic Medical Records; Family History; Genomic; Immunological; Individual Genotype; Individual Phenotype; Individual Sequencing; Questionnaires/Surveys</t>
   </si>
   <si>
     <t>Electronic Medical Records; Questionnaires/Surveys</t>
@@ -790,7 +802,7 @@
     <t>Behavioral; Clinical; Electronic Medical Records; Questionnaires/Surveys; Social; Supporting Documents</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Metabolomic; Other</t>
+    <t>Clinical; Electronic Medical Records; Immunological; Metabolomic; Other</t>
   </si>
   <si>
     <t>Genomic</t>
@@ -799,7 +811,7 @@
     <t>Clinical; Electronic Medical Records; Genomic; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Behavioral; Clinical; Electronic Medical Records; Psychological; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Clinical; Electronic Medical Records; Enviornmental (Physical); Psychological; Questionnaires/Surveys; Social; Other</t>
   </si>
   <si>
     <t>Behavioral; Questionnaires/Surveys; Social</t>
@@ -808,6 +820,9 @@
     <t>Behavioral; Individual Phenotype; Questionnaires/Surveys</t>
   </si>
   <si>
+    <t>Behavioral; Immunological; Questionnaires/Surveys; Other</t>
+  </si>
+  <si>
     <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
   </si>
   <si>
@@ -826,7 +841,7 @@
     <t>Behavioral; Clinical; Questionnaires/Surveys; Other</t>
   </si>
   <si>
-    <t>Clinical; Genomic</t>
+    <t>Clinical; Enviornmental (Physical); Genomic</t>
   </si>
   <si>
     <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys</t>
@@ -838,7 +853,7 @@
     <t>Behavioral; Psychological; Questionnaires/Surveys; Social; Supporting Documents</t>
   </si>
   <si>
-    <t>Genomic; Other</t>
+    <t>Enviornmental (Physical); Genomic; Other</t>
   </si>
   <si>
     <t>Behavioral; Clinical; Cognitive; Family History; Psychological; Questionnaires/Surveys; Social</t>
@@ -850,7 +865,7 @@
     <t>Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
-    <t>Behavioral; Clinical; Family History; Immulogical; Psychological; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Clinical; Family History; Immunological; Psychological; Questionnaires/Surveys; Social; Other</t>
   </si>
   <si>
     <t>Behavioral; Clinical; Psychological; Questionnaires/Surveys; Social</t>
@@ -877,7 +892,7 @@
     <t>Clinical; Individual Phenotype; Questionnaires/Surveys</t>
   </si>
   <si>
-    <t>Clinical; Psychological; Questionnaires/Surveys</t>
+    <t>Clinical; Immunological; Psychological; Questionnaires/Surveys</t>
   </si>
   <si>
     <t>Behavioral; Questionnaires/Surveys; Social; Other</t>
@@ -895,16 +910,25 @@
     <t>Behavioral; Clinical; Electronic Medical Records; Imaging; Psychological; Questionnaires/Surveys; Social; Other</t>
   </si>
   <si>
+    <t>Behavioral; Cognitive; Enviornmental (Physical); Psychological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
     <t>Behavioral; Cognitive; Psychological; Questionnaires/Surveys; Social</t>
   </si>
   <si>
     <t>Behavioral; Electronic Medical Records; Questionnaires/Surveys; Other</t>
   </si>
   <si>
-    <t>Clinical; Electronic Medical Records; Family History; Individual Phenotype; Questionnaires/Surveys</t>
-  </si>
-  <si>
-    <t>Behavioral; Cognitive; Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social; Other</t>
+    <t>Clinical; Electronic Medical Records; Enviornmental (Physical); Family History; Individual Phenotype; Questionnaires/Surveys</t>
+  </si>
+  <si>
+    <t>Behavioral; Cognitive; Enviornmental (Physical); Family History; Physical Activity; Psychological; Questionnaires/Surveys; Social; Other</t>
+  </si>
+  <si>
+    <t>Immunological; Questionnaires/Surveys; Social</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records; Immunological; Questionnaires/Surveys; Other</t>
   </si>
   <si>
     <t>Clinical; Other</t>
@@ -913,7 +937,10 @@
     <t>Questionnaires/Surveys; Social; Other</t>
   </si>
   <si>
-    <t>Behavioral; Clinical; Family History; Questionnaires/Surveys; Social; Other</t>
+    <t>Behavioral; Clinical; Enviornmental (Physical); Family History; Questionnaires/Surveys; Social; Other</t>
+  </si>
+  <si>
+    <t>Electronic Medical Records; Enviornmental (Physical)</t>
   </si>
   <si>
     <t>Behavioral; Clinical; Family History; Questionnaires/Surveys; Social</t>
@@ -1144,13 +1171,13 @@
     <t>Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>COVID Hotspots; Digital Health Applications; Aging; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID Hotspots; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>COVID Hotspots; Digital Health Applications; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID Hotspots; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
   </si>
   <si>
     <t>Point-of-Care (POC) Testing; Novel Biosensing and VOC; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
@@ -1162,16 +1189,16 @@
     <t>Disease Surveillance; Virological Testing; Pregnancy; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Disease Surveillance; Wastewater Surveillance; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure</t>
-  </si>
-  <si>
-    <t>Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Children; Aging; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Vaccination</t>
-  </si>
-  <si>
-    <t>Screening Testing; Disease Surveillance; Wastewater Surveillance; Variants; Next Generation Sequencing (NGS); Aging; Infections; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Virological Testing; Digital Health Applications; Influenza; Infections; Behavior; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+    <t>Disease Surveillance; Wastewater Surveillance; Community Outreach Programs; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Children; Aging; Age Related Group; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Screening Testing; Disease Surveillance; Wastewater Surveillance; Variants; Next Generation Sequencing (NGS); Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; COVID-19</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Virological Testing; Digital Health Applications; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Infections; Respiratory Tract Infections</t>
   </si>
   <si>
     <t>Virological Testing; Serological (Antibody) Testing; Biosensor Technology; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
@@ -1180,19 +1207,19 @@
     <t>Biosensor Technology; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Diagnostic Testing; Biosensor Technology; Digital Health Applications; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Biosensor Technology; Digital Health Applications; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Next Generation Sequencing (NGS); Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
+    <t>Diagnostic Testing; Biosensor Technology; Digital Health Applications; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Respiratory Tract Infections</t>
+  </si>
+  <si>
+    <t>Biosensor Technology; Digital Health Applications; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Respiratory Tract Infections</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Next Generation Sequencing (NGS); Diagnostic Techniques and Procedures; Intervention or Procedure; Disease Surveillance</t>
   </si>
   <si>
     <t>Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Biosensor Technology; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+    <t>Biosensor Technology; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Respiratory Tract Infections</t>
   </si>
   <si>
     <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Social Determinants of Health; Children; Age Related Group; COVID-19-Related Disorders</t>
@@ -1204,43 +1231,43 @@
     <t>Disease Surveillance; Multimodal Surveillance; Virological Testing; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Virological Testing; Children; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; COVID-19-Related Disorders</t>
+    <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Virological Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; COVID-19-Related Disorders</t>
   </si>
   <si>
     <t>Diagnostic Testing; Novel Biosensing and VOC; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Virological Testing; Serological (Antibody) Testing; Children; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Virological Testing; Serological (Antibody) Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Behavior</t>
   </si>
   <si>
     <t>Children; Age Related Group</t>
   </si>
   <si>
-    <t>Novel Biosensing and VOC; Multimodal Surveillance; Virological Testing; Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Multimodal Surveillance; Virological Testing; Influenza; Infections; Intervention or Procedure; Disease Surveillance; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
+    <t>Novel Biosensing and VOC; Multimodal Surveillance; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Multimodal Surveillance; Virological Testing; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Disease Surveillance; Respiratory Tract Infections</t>
   </si>
   <si>
     <t>Virological Testing; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Health Behaviors; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Health Behaviors; Virological Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
   </si>
   <si>
     <t>Social Determinants of Health; Aging</t>
@@ -1252,73 +1279,73 @@
     <t>Novel Biosensing and VOC; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Substance Use; Virological Testing; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Point-of-Care (POC) Testing; Virological Testing; Influenza; Aging; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Novel Biosensing and VOC; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; COVID-19-Related Disorders</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Variants; Infections; Intervention or Procedure; COVID-19; Disease Surveillance</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Disease Surveillance; Serological (Antibody) Testing; Social Determinants of Health; Minorities; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Health Behaviors; Substance Use; Virological Testing; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Point-of-Care (POC) Testing; Virological Testing; Influenza; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Respiratory Tract Infections</t>
+  </si>
+  <si>
+    <t>Novel Biosensing and VOC; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; COVID-19-Related Disorders</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Variants; Intervention or Procedure; Infections; Disease Surveillance; COVID-19</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Disease Surveillance; Serological (Antibody) Testing; Social Determinants of Health; Minorities; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
   </si>
   <si>
     <t>Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Age Related Group; COVID-19-Related Disorders</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Cancer; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Mobile Unit Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Cancer; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Mobile Unit Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
   </si>
   <si>
     <t>Screening Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Cancer; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Seroprevalence; Serological (Antibody) Testing; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; COVID in School Settings; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Cancer; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Seroprevalence; Serological (Antibody) Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
   </si>
   <si>
     <t>Point-of-Care (POC) Testing; Minorities; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
   </si>
   <si>
     <t>Comorbidities; Multimodal Surveillance; Minorities; Disease Surveillance; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Mental Health; Substance Use; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure</t>
+    <t>Mental Health; Substance Use; Community Outreach Programs; Aging; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
   </si>
   <si>
     <t>Diagnostic Testing; Social Determinants of Health; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>COVID in School Settings; Children; Population-Based Statistics; Age Related Group</t>
-  </si>
-  <si>
-    <t>Comorbidities; Substance Use; Mobile Unit Testing; African American Population; Cancer; Diabetes; Obesity; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>COVID in School Settings; Children; Age Related Group; Population-Based Statistics</t>
+  </si>
+  <si>
+    <t>Comorbidities; Substance Use; Mobile Unit Testing; African American Population; Cancer; Diabetes; Obesity; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
   </si>
   <si>
     <t>Point-of-Care (POC) Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
@@ -1336,19 +1363,19 @@
     <t>Health Behaviors; Social Determinants of Health; Aging; Behavior</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Social Determinants of Health; Community Outreach Programs; Children; Pregnancy; Nutrition; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Mental Health; Substance Use; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Virological Testing; Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Social Determinants of Health; Community Outreach Programs; Children; Pregnancy; Nutrition; Age Related Group; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Mental Health; Substance Use; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure; Disease Surveillance</t>
   </si>
   <si>
     <t>Diagnostic Testing; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
@@ -1357,49 +1384,49 @@
     <t>Virological Testing; At-Home Testing; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; COVID in School Settings; Virological Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics</t>
   </si>
   <si>
     <t>Testing Rate/Uptake; Diagnostic Testing; Virological Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
   </si>
   <si>
     <t>Virological Testing; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Disease Surveillance; Virological Testing; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Screening Testing; Social Determinants of Health; Children; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; COVID Hotspots; COVID Testing Deserts; Virological Testing; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Digital Health Applications; Children; Aging; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID Hotspots; COVID Testing Deserts; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Nutrition; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>Testing Rate/Uptake; Disease Surveillance; Virological Testing; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Screening Testing; Social Determinants of Health; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; COVID Hotspots; COVID Testing Deserts; Virological Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Digital Health Applications; Children; Aging; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID Hotspots; COVID Testing Deserts; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Nutrition; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Vaccination</t>
   </si>
   <si>
     <t>Virological Testing; Cancer; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Diagnostic Testing; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; COVID-19-Related Disorders</t>
+    <t>Diagnostic Testing; Multisystem Inflammatory Syndrome in Children (MIS-C); Multisystem Inflammatory Syndrome (MIS); Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; COVID-19-Related Disorders</t>
   </si>
   <si>
     <t>Virological Testing; Next Generation Sequencing (NGS); Diagnostic Techniques and Procedures; Intervention or Procedure</t>
@@ -1408,196 +1435,196 @@
     <t>Comorbidities; Vaccination Rate/Uptake; Aging; Intervention or Procedure; Vaccination</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Comorbidities; Mobile Unit Testing; Community Outreach Programs; Diabetes; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Virological Testing; Serological (Antibody) Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Variants; Children; Population-Based Statistics; Infections; Behavior; Age Related Group; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>Testing Rate/Uptake; Comorbidities; Mobile Unit Testing; Community Outreach Programs; Diabetes; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Substance Use; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Virological Testing; Serological (Antibody) Testing; Mobile Unit Testing; Vaccination Rate/Uptake; Variants; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Behavior; Infections; COVID-19; Vaccination</t>
   </si>
   <si>
     <t>Health Behaviors; Substance Use; Behavior</t>
   </si>
   <si>
-    <t>COVID in School Settings; Diagnostic Testing; COVID Hotspots; Social Determinants of Health; Children; Aging; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Point-of-Care (POC) Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Social Determinants of Health; Influenza; Aging; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Disease Surveillance; Children; Aging; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>COVID in School Settings; Diagnostic Testing; COVID Hotspots; Social Determinants of Health; Children; Aging; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Point-of-Care (POC) Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Social Determinants of Health; Influenza; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Respiratory Tract Infections</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Disease Surveillance; Children; Aging; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics</t>
   </si>
   <si>
     <t>Social Determinants of Health</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; COVID Hotspots; Substance Use; Community Outreach Programs; Cancer; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Diagnostic Testing; COVID Hotspots; Substance Use; Community Outreach Programs; Cancer; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavior; Behavioral Psychological or Informational Intervention</t>
   </si>
   <si>
     <t>Testing Rate/Uptake; Comorbidities; Virological Testing; Serological (Antibody) Testing; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; COVID Testing Deserts; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Population-Based Statistics; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Behavior; Intervention or Procedure; Vaccination</t>
-  </si>
-  <si>
-    <t>Antigen Testing; COVID in School Settings; Screening Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Diagnostic Testing; Health Behaviors; Mental Health; Serological (Antibody) Testing; Pregnancy; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>Testing Rate/Uptake; COVID Testing Deserts; Mobile Unit Testing; Vaccination Rate/Uptake; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Vaccination</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Vaccination Rate/Uptake; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Antigen Testing; COVID in School Settings; Screening Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Diagnostic Testing; Health Behaviors; Mental Health; Serological (Antibody) Testing; Pregnancy; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
   </si>
   <si>
     <t>Virological Testing; Biosensor Technology; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Aging; Nutrition; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Diagnostic Testing; Digital Health Applications; Influenza; Infections; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Long COVID; Infections; Behavioral Psychological or Informational Intervention; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures; Vaccination; COVID-19-Related Disorders</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Diagnostic Testing; Wastewater Surveillance; Virological Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Disease Surveillance; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Diabetes; Obesity; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Seroprevalence; Virological Testing; Serological (Antibody) Testing; Social Determinants of Health; Community Outreach Programs; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Virological Testing; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; COVID Testing Deserts; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Aging; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Social Determinants of Health; Children; Population-Based Statistics; Behavior; Age Related Group</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Social Determinants of Health; Community Outreach Programs; Diabetes; Obesity; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Digital Health Applications; Aging; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; COVID in School Settings; Diagnostic Testing; Children; Aging; Nutrition; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Substance Use; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Diagnostic Testing; Digital Health Applications; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; Respiratory Tract Infections</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Long COVID; Diagnostic Techniques and Procedures; Intervention or Procedure; Infections; COVID-19-Related Disorders; COVID-19; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Mental Health; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Diagnostic Testing; Wastewater Surveillance; Virological Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Diabetes; Obesity; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Seroprevalence; Virological Testing; Serological (Antibody) Testing; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Virological Testing; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; COVID Testing Deserts; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Social Determinants of Health; Children; Age Related Group; Population-Based Statistics; Behavior</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Screening Testing; Virological Testing; Social Determinants of Health; Community Outreach Programs; Obesity; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Social Determinants of Health; Community Outreach Programs; Diabetes; Obesity; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Digital Health Applications; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Vaccination</t>
   </si>
   <si>
     <t>Testing Rate/Uptake; Screening Testing; Social Determinants of Health; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Substance Use; Mobile Unit Testing; Social Determinants of Health; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Point-of-Care (POC) Testing; Substance Use; Mobile Unit Testing; Social Determinants of Health; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
   </si>
   <si>
     <t>Comorbidities; Digital Health Applications; Diagnostic Techniques and Procedures; Intervention or Procedure</t>
   </si>
   <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Wastewater Surveillance; Variants; Aging; Infections; Intervention or Procedure; COVID-19; Disease Surveillance</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; COVID in School Settings; Mental Health; Virological Testing; Vaccination Rate/Uptake; Children; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Antigen Testing; Social Determinants of Health; Community Outreach Programs; Digital Health Applications; Children; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Health Behaviors; Biosensor Technology; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>COVID in School Settings; Diagnostic Testing; Social Determinants of Health; Children; Aging; Nutrition; Population-Based Statistics; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Variants; Social Determinants of Health; Aging; Infections; Behavior; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Comorbidities; Serological (Antibody) Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Diabetes; Obesity; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Mental Health; Virological Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Influenza; Infections; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Virological Testing; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Antigen Testing; COVID in School Settings; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Age Related Group; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Variants; Social Determinants of Health; Aging; Infections; Behavior; Intervention or Procedure; COVID-19; Diagnostic Techniques and Procedures</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Behavior; Intervention or Procedure; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Disease Surveillance; Social Determinants of Health; Children; Population-Based Statistics; Behavior; Age Related Group; Intervention or Procedure</t>
-  </si>
-  <si>
-    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Influenza; Infections; Behavioral Psychological or Informational Intervention; Behavior; Intervention or Procedure; Respiratory Tract Infections; Diagnostic Techniques and Procedures; Vaccination</t>
-  </si>
-  <si>
-    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Community Outreach Programs; Behavioral Psychological or Informational Intervention; Intervention or Procedure; Diagnostic Techniques and Procedures</t>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Wastewater Surveillance; Variants; Aging; Intervention or Procedure; Infections; Disease Surveillance; COVID-19</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; COVID in School Settings; Mental Health; Virological Testing; Vaccination Rate/Uptake; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Vaccination</t>
+  </si>
+  <si>
+    <t>Antigen Testing; Social Determinants of Health; Community Outreach Programs; Digital Health Applications; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Health Behaviors; Biosensor Technology; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior</t>
+  </si>
+  <si>
+    <t>COVID in School Settings; Diagnostic Testing; Social Determinants of Health; Children; Aging; Nutrition; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Health Behaviors; Substance Use; Variants; Social Determinants of Health; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Infections; COVID-19</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Community Outreach Programs; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Comorbidities; Serological (Antibody) Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Diabetes; Obesity; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Mental Health; Virological Testing; Mobile Unit Testing; Social Determinants of Health; Community Outreach Programs; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Infections; Behavioral Psychological or Informational Intervention; Respiratory Tract Infections</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Virological Testing; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Antigen Testing; COVID in School Settings; Virological Testing; Vaccination Rate/Uptake; Community Outreach Programs; Children; Diagnostic Techniques and Procedures; Age Related Group; Intervention or Procedure; Population-Based Statistics; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Community Outreach Programs; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Virological Testing; Variants; Social Determinants of Health; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Infections; COVID-19</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Health Behaviors; Virological Testing; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Vaccination Rate/Uptake; Social Determinants of Health; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Pandemic Perceptions and Decision-Making; Vaccination Rate/Uptake; Social Determinants of Health; Aging; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Vaccination</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; COVID in School Settings; Disease Surveillance; Social Determinants of Health; Children; Age Related Group; Intervention or Procedure; Population-Based Statistics; Behavior</t>
+  </si>
+  <si>
+    <t>Pandemic Perceptions and Decision-Making; Health Behaviors; Mobile Unit Testing; Vaccination Rate/Uptake; Community Outreach Programs; Influenza; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavior; Infections; Behavioral Psychological or Informational Intervention; Respiratory Tract Infections; Vaccination</t>
+  </si>
+  <si>
+    <t>Testing Rate/Uptake; Diagnostic Testing; Comorbidities; Community Outreach Programs; Diagnostic Techniques and Procedures; Intervention or Procedure; Behavioral Psychological or Informational Intervention</t>
   </si>
   <si>
     <t>Hispanic and Latino; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1621,16 +1648,16 @@
     <t>Older Adults or Elderly; Adults; Age Related Group</t>
   </si>
   <si>
-    <t>Rural Communities; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Children; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Native Hawaiian or other Pacific Islander; Rural Communities; Lower Socioeconomic Status (SES) Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Children; Underserved/Vulnerable Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Native Hawaiian or other Pacific Islander; Rural Communities; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Health Disparate Minority and Vulnerable Populations</t>
@@ -1648,34 +1675,31 @@
     <t>African American; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Adults; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>African American; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>African American; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>African American; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Children; Sexual and Gender Minorities; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Essential Workers; Rural Communities; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Asian; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Racial and Ethnic Minorities; Children; Sexual and Gender Minorities; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Essential Workers; Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Immigrants; African American; Hispanic and Latino; Asian; Underserved/Vulnerable Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>African American; Hispanic and Latino; Dialysis Patients; Underserved/Vulnerable Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
@@ -1684,49 +1708,49 @@
     <t>People Living with HIV/AIDs; Sexual and Gender Minorities; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Hispanic and Latino; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Children; School Community Members; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Hispanic and Latino; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Children; School Community Members; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Immigrants; Homeless/Unhoused; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Immigrants; Homeless/Unhoused; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>African American; Children; Pregnant (or Nursing) Women; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; People Living with HIV/AIDs; Underserved/Vulnerable Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Native Hawaiian or other Pacific Islander; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>African American; Children; School Community Members; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
-  </si>
-  <si>
-    <t>Immigrants; Homeless/Unhoused; People Living with HIV/AIDs; Lower Socioeconomic Status (SES) Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Homeless/Unhoused; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Children; Underserved/Vulnerable Population; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>African American; Children; School Community Members; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Immigrants; Homeless/Unhoused; People Living with HIV/AIDs; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Homeless/Unhoused; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Children; Underserved/Vulnerable Population; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Hispanic and Latino; Health Disparate Minority and Vulnerable Populations</t>
@@ -1735,7 +1759,7 @@
     <t>Asian; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1753,10 +1777,10 @@
     <t>African American; Hispanic and Latino; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>African American; Hispanic and Latino; Children; School Community Members; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>African American; Hispanic and Latino; Children; School Community Members; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Essential Workers; Homeless/Unhoused; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1768,7 +1792,7 @@
     <t>Racial and Ethnic Minorities; Hispanic and Latino; Rural Communities; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Children; School Community Members; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
@@ -1810,10 +1834,10 @@
     <t>Racial and Ethnic Minorities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>African American; Hispanic and Latino; Essential Workers; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; Incarcerated/Institutionalized (or Criminal Legal System Involvement); Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
@@ -1825,13 +1849,13 @@
     <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Incarcerated/Institutionalized (or Criminal Legal System Involvement); Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Hispanic and Latino; Children; School Community Members; Rural Communities; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; Immigrants; Children; School Community Members; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Incarcerated/Institutionalized (or Criminal Legal System Involvement); Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Hispanic and Latino; Children; School Community Members; Rural Communities; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; Immigrants; Children; School Community Members; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; African American; Children; School Community Members; Intellectual and Developmental Disabilities; Underserved/Vulnerable Population; Age Related Group; Vulnerable Populations Due to Health Conditions; Health Disparate Minority and Vulnerable Populations</t>
@@ -1846,31 +1870,31 @@
     <t>Racial and Ethnic Minorities; Rural Communities; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
-  </si>
-  <si>
-    <t>Native Hawaiian or other Pacific Islander; Asian; Children; School Community Members; Rural Communities; Older Adults or Elderly; Adults; Asian American Native Hawaiian and Pacific Islander; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Racial and Ethnic Minorities; Hispanic and Latino; Lower Socioeconomic Status (SES) Population; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Hispanic and Latino; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Native Hawaiian or other Pacific Islander; Asian; Children; School Community Members; Rural Communities; Older Adults or Elderly; Adults; Age Related Group; Underserved/Vulnerable Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Essential Workers</t>
   </si>
   <si>
-    <t>Homeless/Unhoused; Sexual and Gender Minorities; Rural Communities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
+    <t>Homeless/Unhoused; Sexual and Gender Minorities; Rural Communities; Lower Socioeconomic Status (SES) Population; Older Adults or Elderly; Adults; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>Racial and Ethnic Minorities; Asian; Essential Workers; Underserved/Vulnerable Population; Lower Socioeconomic Status (SES) Population; Asian American Native Hawaiian and Pacific Islander; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
-    <t>Racial and Ethnic Minorities; Children; School Community Members; Lower Socioeconomic Status (SES) Population; Age Related Group; Health Disparate Minority and Vulnerable Populations; Underserved/Vulnerable Population</t>
-  </si>
-  <si>
-    <t>Underserved/Vulnerable Population; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
-  </si>
-  <si>
-    <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Adults; Health Disparate Minority and Vulnerable Populations; Age Related Group</t>
+    <t>Racial and Ethnic Minorities; Children; School Community Members; Lower Socioeconomic Status (SES) Population; Age Related Group; Underserved/Vulnerable Population; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Underserved/Vulnerable Population; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
+  </si>
+  <si>
+    <t>Racial and Ethnic Minorities; African American; Underserved/Vulnerable Population; Adults; Age Related Group; Health Disparate Minority and Vulnerable Populations</t>
   </si>
   <si>
     <t>251-500</t>
@@ -1948,6 +1972,9 @@
     <t>phs002575; phs002578; phs002618; phs002628; phs002634; phs002644; phs002741; phs002742; phs002760; phs002825; phs002869; phs002878; phs002946; phs002947; phs003051; phs003057; phs003234; phs003371; phs003514</t>
   </si>
   <si>
+    <t>phs002522; phs002542; phs002543; phs002544; phs002546; phs002553; phs002561; phs002565; phs002572; phs002600; phs002682; phs002709; phs002736; phs002737; phs002744</t>
+  </si>
+  <si>
     <t>phs002616; phs002631; phs002649; phs002662; phs002707; phs002761; phs002777; phs002871; phs002873; phs002874; phs002945; phs003050; phs003362; phs003375; phs003377</t>
   </si>
   <si>
@@ -1972,12 +1999,18 @@
     <t>Social</t>
   </si>
   <si>
+    <t>Immunological</t>
+  </si>
+  <si>
     <t>Psychological</t>
   </si>
   <si>
     <t>Family History</t>
   </si>
   <si>
+    <t>Enviornmental (Physical)</t>
+  </si>
+  <si>
     <t>Individual Phenotype</t>
   </si>
   <si>
@@ -1999,15 +2032,9 @@
     <t>Metabolomic</t>
   </si>
   <si>
-    <t>Enviornmental (Physical)</t>
-  </si>
-  <si>
     <t>Individual Genotype</t>
   </si>
   <si>
-    <t>Immulogical</t>
-  </si>
-  <si>
     <t>phs002516; phs002519; phs002520; phs002521; phs002523; phs002525; phs002526; phs002534; phs002535; phs002537; phs002538; phs002539; phs002540; phs002542; phs002546; phs002549; phs002551; phs002567; phs002568; phs002569; phs002575; phs002578; phs002581; phs002582; phs002584; phs002600; phs002601; phs002608; phs002609; phs002616; phs002618; phs002619; phs002631; phs002633; phs002634; phs002642; phs002643; phs002644; phs002645; phs002647; phs002648; phs002649; phs002651; phs002658; phs002660; phs002661; phs002662; phs002682; phs002699; phs002704; phs002707; phs002708; phs002713; phs002720; phs002736; phs002737; phs002738; phs002739; phs002740; phs002741; phs002742; phs002743; phs002745; phs002759; phs002760; phs002761; phs002763; phs002775; phs002776; phs002777; phs002781; phs002786; phs002791; phs002799; phs002800; phs002821; phs002825; phs002868; phs002869; phs002870; phs002871; phs002872; phs002873; phs002874; phs002875; phs002878; phs002904; phs002905; phs002906; phs002917; phs002920; phs002945; phs002946; phs002947; phs002948; phs002964; phs003021; phs003026; phs003027; phs003029; phs003030; phs003031; phs003032; phs003033; phs003037; phs003049; phs003050; phs003051; phs003056; phs003057; phs003081; phs003082; phs003083; phs003123; phs003125; phs003126; phs003127; phs003128; phs003234; phs003237; phs003238; phs003239; phs003359; phs003360; phs003362; phs003364; phs003365; phs003366; phs003368; phs003371; phs003373; phs003374; phs003375; phs003376; phs003377; phs003484; phs003504; phs003507; phs003514; phs003515; phs003544; phs003595</t>
   </si>
   <si>
@@ -2026,10 +2053,16 @@
     <t>phs002525; phs002535; phs002540; phs002549; phs002569; phs002575; phs002581; phs002585; phs002588; phs002600; phs002601; phs002603; phs002609; phs002616; phs002628; phs002644; phs002657; phs002699; phs002741; phs002747; phs002763; phs002775; phs002781; phs002869; phs002872; phs002905; phs002920; phs002945; phs002964; phs003021; phs003037; phs003083; phs003361; phs003374</t>
   </si>
   <si>
+    <t>phs002522; phs002525; phs002527; phs002543; phs002544; phs002546; phs002549; phs002550; phs002561; phs002563; phs002565; phs002569; phs002570; phs002572; phs002573; phs002583; phs002602; phs002603; phs002633; phs002700; phs002702; phs002745; phs002800; phs003033; phs003037</t>
+  </si>
+  <si>
     <t>phs002519; phs002582; phs002616; phs002634; phs002647; phs002713; phs002740; phs002743; phs002745; phs002761; phs002777; phs002800; phs002821; phs002905; phs002906; phs002917; phs002946; phs003029; phs003374; phs003504; phs003544</t>
   </si>
   <si>
     <t>phs002549; phs002569; phs002634; phs002740; phs002745; phs002763; phs002777; phs002874; phs002875; phs002945; phs003029; phs003128; phs003373; phs003374; phs003504; phs003544</t>
+  </si>
+  <si>
+    <t>phs002525; phs002527; phs002540; phs002542; phs002616; phs002679; phs002729; phs002906; phs002945; phs003029; phs003128; phs003361</t>
   </si>
   <si>
     <t>phs002537; phs002538; phs002539; phs002549; phs002569; phs002588; phs002631; phs002747; phs002791; phs002945</t>
@@ -2731,10 +2764,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>97</c:v>
@@ -2823,16 +2856,16 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Genomic</c:v>
+                  <c:v>Enviornmental (Physical)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Individual Phenotype</c:v>
+                  <c:v>Family History</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Family History</c:v>
+                  <c:v>Psychological</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Psychological</c:v>
+                  <c:v>Immunological</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Electronic Medical Records</c:v>
@@ -2862,16 +2895,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>34</c:v>
@@ -4368,16 +4401,16 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4395,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4413,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4431,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4449,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4467,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4485,12 +4518,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -4502,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4520,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4538,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4556,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4574,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4592,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4610,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4628,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4646,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4664,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4721,16 +4754,16 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4748,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4766,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4784,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4802,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4820,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4838,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4856,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4874,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4892,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4910,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -4937,16 +4970,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4964,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4982,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5000,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5018,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5036,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5054,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5072,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5090,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5108,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5126,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5144,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5162,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5180,12 +5213,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -5197,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5215,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5233,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5251,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5269,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5287,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5362,16 +5395,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5389,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5407,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5425,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5443,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5461,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5479,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5497,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5515,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5533,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5551,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -5578,21 +5611,21 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B2">
         <v>159</v>
@@ -5604,12 +5637,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="B3">
         <v>145</v>
@@ -5621,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5639,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5657,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5675,12 +5708,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -5692,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5710,12 +5743,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B9">
         <v>53</v>
@@ -5727,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5745,12 +5778,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="B11">
         <v>36</v>
@@ -5762,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5780,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5798,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5816,12 +5849,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -5833,12 +5866,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -5850,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5868,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5886,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5904,12 +5937,12 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5921,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5939,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5957,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5975,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5993,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6011,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6029,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6047,12 +6080,12 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -6064,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6082,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6100,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6118,12 +6151,12 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -6135,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6153,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6171,12 +6204,12 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -6188,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6206,12 +6239,12 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -6223,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6241,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6259,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6277,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6295,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6313,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6331,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6349,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6367,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6385,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6403,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6421,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6439,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6457,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6475,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6493,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6586,16 +6619,16 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6613,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6631,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6649,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6667,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6685,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6703,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6721,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6739,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6757,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6775,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6802,16 +6835,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6829,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6847,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6865,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6883,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6901,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6919,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6937,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6976,16 +7009,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7003,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7021,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7039,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7057,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7075,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7093,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7111,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -7138,21 +7171,21 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="B2">
         <v>108</v>
@@ -7164,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7182,12 +7215,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -7199,12 +7232,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="B5">
         <v>45</v>
@@ -7216,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7234,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7252,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7270,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7288,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7306,12 +7339,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -7323,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7341,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7359,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7377,12 +7410,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -7394,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7412,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7430,12 +7463,12 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -7447,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7465,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7483,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7501,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7519,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7537,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7555,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7573,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7591,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7609,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7627,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -7648,16 +7681,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7675,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7693,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7711,12 +7744,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -7728,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7746,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7764,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7782,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7800,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7818,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7836,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -7919,19 +7952,19 @@
         <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J2">
         <v>300</v>
@@ -7951,19 +7984,19 @@
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G3" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J3">
         <v>40</v>
@@ -7983,19 +8016,19 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="I4" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J4">
         <v>132</v>
@@ -8015,19 +8048,19 @@
         <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H5" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I5" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J5">
         <v>4000</v>
@@ -8047,19 +8080,19 @@
         <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G6" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J6">
         <v>20</v>
@@ -8079,19 +8112,19 @@
         <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="I7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J7">
         <v>3700</v>
@@ -8111,19 +8144,19 @@
         <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H8" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I8" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J8">
         <v>800</v>
@@ -8143,19 +8176,19 @@
         <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H9" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I9" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J9">
         <v>30000</v>
@@ -8175,19 +8208,19 @@
         <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H10" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="I10" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J10">
         <v>7000</v>
@@ -8207,19 +8240,19 @@
         <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G11" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H11" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I11" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8236,22 +8269,22 @@
         <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G12" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I12" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -8271,19 +8304,19 @@
         <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H13" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I13" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -8300,22 +8333,22 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F14" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H14" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="I14" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J14">
         <v>23</v>
@@ -8332,22 +8365,22 @@
         <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G15" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H15" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I15" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J15">
         <v>95</v>
@@ -8364,22 +8397,22 @@
         <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G16" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H16" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I16" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J16">
         <v>3034</v>
@@ -8396,22 +8429,22 @@
         <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I17" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J17">
         <v>4312</v>
@@ -8428,22 +8461,22 @@
         <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G18" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H18" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I18" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J18">
         <v>627</v>
@@ -8460,22 +8493,22 @@
         <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G19" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H19" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="I19" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J19">
         <v>24</v>
@@ -8495,19 +8528,19 @@
         <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H20" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I20" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -8524,22 +8557,22 @@
         <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" t="s">
+        <v>394</v>
+      </c>
+      <c r="H21" t="s">
         <v>311</v>
       </c>
-      <c r="F21" t="s">
-        <v>352</v>
-      </c>
-      <c r="G21" t="s">
-        <v>385</v>
-      </c>
-      <c r="H21" t="s">
-        <v>302</v>
-      </c>
       <c r="I21" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -8556,22 +8589,22 @@
         <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I22" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -8588,22 +8621,22 @@
         <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H23" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I23" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J23">
         <v>1004</v>
@@ -8623,19 +8656,19 @@
         <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G24" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H24" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I24" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -8652,22 +8685,22 @@
         <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H25" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="I25" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J25">
         <v>3864</v>
@@ -8684,22 +8717,22 @@
         <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F26" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G26" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H26" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I26" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J26">
         <v>16445</v>
@@ -8719,16 +8752,16 @@
         <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H27" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I27" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J27">
         <v>800</v>
@@ -8748,19 +8781,19 @@
         <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G28" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H28" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I28" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J28">
         <v>900</v>
@@ -8780,19 +8813,19 @@
         <v>230</v>
       </c>
       <c r="E29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F29" t="s">
+        <v>360</v>
+      </c>
+      <c r="G29" t="s">
+        <v>394</v>
+      </c>
+      <c r="H29" t="s">
         <v>311</v>
       </c>
-      <c r="F29" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" t="s">
-        <v>385</v>
-      </c>
-      <c r="H29" t="s">
-        <v>302</v>
-      </c>
       <c r="I29" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J29">
         <v>1200</v>
@@ -8809,22 +8842,22 @@
         <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G30" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H30" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="I30" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J30">
         <v>400</v>
@@ -8841,22 +8874,22 @@
         <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F31" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G31" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H31" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="I31" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J31">
         <v>30</v>
@@ -8873,22 +8906,22 @@
         <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="F32" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G32" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H32" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="I32" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8908,19 +8941,19 @@
         <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F33" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G33" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H33" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I33" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J33">
         <v>23</v>
@@ -8940,19 +8973,19 @@
         <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H34" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I34" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8972,19 +9005,19 @@
         <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G35" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H35" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I35" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J35">
         <v>95</v>
@@ -9001,22 +9034,22 @@
         <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="I36" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J36">
         <v>83000</v>
@@ -9033,22 +9066,22 @@
         <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G37" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H37" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="I37" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J37">
         <v>960</v>
@@ -9065,22 +9098,22 @@
         <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="H38" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="I38" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J38">
         <v>1050</v>
@@ -9097,22 +9130,22 @@
         <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H39" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="I39" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J39">
         <v>500</v>
@@ -9132,19 +9165,19 @@
         <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J40">
         <v>500</v>
@@ -9161,22 +9194,22 @@
         <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="H41" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="I41" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J41">
         <v>11200</v>
@@ -9193,22 +9226,22 @@
         <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
+        <v>412</v>
+      </c>
+      <c r="H42" t="s">
         <v>403</v>
       </c>
-      <c r="H42" t="s">
-        <v>394</v>
-      </c>
       <c r="I42" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J42">
         <v>7200</v>
@@ -9225,22 +9258,22 @@
         <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="H43" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I43" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J43">
         <v>400</v>
@@ -9257,22 +9290,22 @@
         <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G44" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H44" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I44" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J44">
         <v>700</v>
@@ -9289,22 +9322,22 @@
         <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G45" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H45" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="I45" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J45">
         <v>2400</v>
@@ -9324,19 +9357,19 @@
         <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I46" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J46">
         <v>50</v>
@@ -9353,22 +9386,22 @@
         <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H47" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J47">
         <v>150</v>
@@ -9385,22 +9418,22 @@
         <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F48" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G48" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I48" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J48">
         <v>100</v>
@@ -9420,19 +9453,19 @@
         <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F49" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G49" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H49" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="I49" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J49">
         <v>2050</v>
@@ -9449,22 +9482,22 @@
         <v>221</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H50" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I50" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J50">
         <v>660</v>
@@ -9481,22 +9514,22 @@
         <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G51" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H51" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="I51" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J51">
         <v>500</v>
@@ -9513,22 +9546,22 @@
         <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G52" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H52" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="I52" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J52">
         <v>800</v>
@@ -9545,22 +9578,22 @@
         <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F53" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G53" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H53" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I53" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J53">
         <v>3000</v>
@@ -9577,22 +9610,22 @@
         <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I54" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J54">
         <v>1000</v>
@@ -9609,22 +9642,22 @@
         <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F55" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H55" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I55" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J55">
         <v>2000</v>
@@ -9641,22 +9674,22 @@
         <v>215</v>
       </c>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F56" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G56" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H56" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="I56" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J56">
         <v>2000</v>
@@ -9673,22 +9706,22 @@
         <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G57" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H57" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I57" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J57">
         <v>670</v>
@@ -9705,19 +9738,19 @@
         <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F58" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H58" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I58" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J58">
         <v>2750</v>
@@ -9737,19 +9770,19 @@
         <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F59" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G59" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H59" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I59" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J59">
         <v>2000</v>
@@ -9766,22 +9799,22 @@
         <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="H60" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="I60" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J60">
         <v>6000</v>
@@ -9798,22 +9831,22 @@
         <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F61" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G61" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H61" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="I61" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J61">
         <v>5000</v>
@@ -9830,22 +9863,22 @@
         <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G62" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H62" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I62" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J62">
         <v>1250</v>
@@ -9862,22 +9895,22 @@
         <v>215</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F63" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G63" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H63" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="I63" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J63">
         <v>227</v>
@@ -9897,19 +9930,19 @@
         <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G64" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H64" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="I64" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J64">
         <v>15000</v>
@@ -9926,22 +9959,22 @@
         <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F65" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G65" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H65" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="I65" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J65">
         <v>3034</v>
@@ -9958,22 +9991,22 @@
         <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E66" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F66" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G66" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H66" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="I66" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J66">
         <v>120</v>
@@ -9990,22 +10023,22 @@
         <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F67" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G67" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H67" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="I67" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J67">
         <v>2000</v>
@@ -10022,22 +10055,22 @@
         <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E68" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F68" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G68" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H68" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="I68" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J68">
         <v>4312</v>
@@ -10054,22 +10087,22 @@
         <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F69" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G69" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H69" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="I69" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J69">
         <v>627</v>
@@ -10086,22 +10119,22 @@
         <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G70" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H70" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="I70" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J70">
         <v>300</v>
@@ -10118,22 +10151,22 @@
         <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G71" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I71" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J71">
         <v>108</v>
@@ -10150,22 +10183,22 @@
         <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G72" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H72" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I72" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J72">
         <v>488</v>
@@ -10182,22 +10215,22 @@
         <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F73" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G73" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H73" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I73" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J73">
         <v>10</v>
@@ -10214,22 +10247,22 @@
         <v>215</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F74" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G74" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H74" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I74" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J74">
         <v>60</v>
@@ -10246,22 +10279,22 @@
         <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F75" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G75" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H75" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I75" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J75">
         <v>16360</v>
@@ -10281,19 +10314,19 @@
         <v>230</v>
       </c>
       <c r="E76" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F76" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G76" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H76" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I76" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J76">
         <v>24</v>
@@ -10313,19 +10346,19 @@
         <v>230</v>
       </c>
       <c r="E77" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F77" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G77" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H77" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I77" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -10342,22 +10375,22 @@
         <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G78" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H78" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I78" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J78">
         <v>2000</v>
@@ -10377,19 +10410,19 @@
         <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F79" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G79" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H79" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="I79" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J79">
         <v>2025</v>
@@ -10406,22 +10439,22 @@
         <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F80" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G80" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H80" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="I80" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J80">
         <v>10000</v>
@@ -10438,19 +10471,19 @@
         <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E81" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" t="s">
+        <v>361</v>
+      </c>
+      <c r="H81" t="s">
         <v>311</v>
       </c>
-      <c r="F81" t="s">
-        <v>352</v>
-      </c>
-      <c r="H81" t="s">
-        <v>302</v>
-      </c>
       <c r="I81" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J81">
         <v>100</v>
@@ -10467,22 +10500,22 @@
         <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G82" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H82" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="I82" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J82">
         <v>150</v>
@@ -10499,22 +10532,22 @@
         <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F83" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G83" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H83" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="I83" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J83">
         <v>250</v>
@@ -10531,22 +10564,22 @@
         <v>215</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G84" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H84" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I84" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J84">
         <v>20</v>
@@ -10563,22 +10596,22 @@
         <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E85" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F85" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G85" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H85" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I85" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J85">
         <v>341</v>
@@ -10595,22 +10628,22 @@
         <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E86" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F86" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G86" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H86" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I86" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J86">
         <v>285</v>
@@ -10627,22 +10660,22 @@
         <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F87" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G87" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H87" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I87" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J87">
         <v>187</v>
@@ -10662,19 +10695,19 @@
         <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F88" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G88" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H88" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I88" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J88">
         <v>206</v>
@@ -10691,22 +10724,22 @@
         <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F89" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G89" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H89" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I89" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J89">
         <v>750</v>
@@ -10723,22 +10756,22 @@
         <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F90" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G90" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H90" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I90" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J90">
         <v>650</v>
@@ -10758,19 +10791,19 @@
         <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F91" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G91" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H91" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="I91" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J91">
         <v>4800</v>
@@ -10787,22 +10820,22 @@
         <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G92" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H92" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I92" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J92">
         <v>200</v>
@@ -10819,22 +10852,22 @@
         <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F93" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G93" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H93" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I93" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -10851,22 +10884,22 @@
         <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F94" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G94" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H94" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="I94" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J94">
         <v>1800</v>
@@ -10883,22 +10916,22 @@
         <v>221</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F95" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G95" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H95" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I95" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J95">
         <v>760</v>
@@ -10915,22 +10948,22 @@
         <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E96" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F96" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G96" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H96" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="I96" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J96">
         <v>5000</v>
@@ -10947,22 +10980,22 @@
         <v>222</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G97" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H97" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="I97" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J97">
         <v>1000</v>
@@ -10979,22 +11012,22 @@
         <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G98" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H98" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="I98" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J98">
         <v>980</v>
@@ -11011,22 +11044,22 @@
         <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E99" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F99" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G99" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H99" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="I99" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J99">
         <v>7000</v>
@@ -11043,22 +11076,22 @@
         <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F100" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G100" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H100" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="I100" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J100">
         <v>100000</v>
@@ -11078,19 +11111,19 @@
         <v>229</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F101" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G101" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H101" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="I101" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J101">
         <v>240</v>
@@ -11107,22 +11140,22 @@
         <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E102" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F102" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="G102" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H102" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="I102" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J102">
         <v>500</v>
@@ -11139,22 +11172,22 @@
         <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E103" t="s">
+        <v>320</v>
+      </c>
+      <c r="F103" t="s">
+        <v>361</v>
+      </c>
+      <c r="G103" t="s">
+        <v>463</v>
+      </c>
+      <c r="H103" t="s">
         <v>311</v>
       </c>
-      <c r="F103" t="s">
-        <v>352</v>
-      </c>
-      <c r="G103" t="s">
-        <v>454</v>
-      </c>
-      <c r="H103" t="s">
-        <v>302</v>
-      </c>
       <c r="I103" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J103">
         <v>200</v>
@@ -11171,22 +11204,22 @@
         <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E104" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F104" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G104" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H104" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I104" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J104">
         <v>800</v>
@@ -11203,22 +11236,22 @@
         <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E105" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F105" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G105" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H105" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I105" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J105">
         <v>200</v>
@@ -11235,22 +11268,22 @@
         <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F106" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G106" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H106" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I106" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J106">
         <v>1235</v>
@@ -11267,22 +11300,22 @@
         <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E107" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F107" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G107" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H107" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="I107" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J107">
         <v>22000</v>
@@ -11299,22 +11332,22 @@
         <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E108" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F108" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G108" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H108" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="I108" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J108">
         <v>500</v>
@@ -11331,22 +11364,22 @@
         <v>215</v>
       </c>
       <c r="D109" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E109" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F109" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G109" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H109" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="I109" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J109">
         <v>450</v>
@@ -11363,22 +11396,22 @@
         <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F110" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G110" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H110" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I110" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J110">
         <v>400</v>
@@ -11395,22 +11428,22 @@
         <v>222</v>
       </c>
       <c r="D111" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E111" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F111" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G111" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="I111" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J111">
         <v>5600</v>
@@ -11427,22 +11460,22 @@
         <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F112" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G112" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H112" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="I112" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J112">
         <v>1400</v>
@@ -11459,22 +11492,22 @@
         <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E113" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F113" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G113" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="I113" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J113">
         <v>6000</v>
@@ -11491,22 +11524,22 @@
         <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E114" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F114" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G114" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H114" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="I114" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J114">
         <v>1000</v>
@@ -11526,19 +11559,19 @@
         <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F115" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G115" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H115" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I115" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J115">
         <v>35000</v>
@@ -11555,22 +11588,22 @@
         <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F116" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G116" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H116" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="I116" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J116">
         <v>125000</v>
@@ -11587,22 +11620,22 @@
         <v>223</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F117" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G117" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="H117" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="I117" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11619,22 +11652,22 @@
         <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E118" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F118" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G118" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H118" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="I118" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J118">
         <v>2930</v>
@@ -11651,22 +11684,22 @@
         <v>215</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F119" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G119" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H119" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="I119" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J119">
         <v>487</v>
@@ -11683,22 +11716,22 @@
         <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E120" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F120" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G120" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H120" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="I120" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J120">
         <v>9000</v>
@@ -11715,22 +11748,22 @@
         <v>215</v>
       </c>
       <c r="D121" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E121" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F121" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G121" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="I121" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J121">
         <v>3000</v>
@@ -11747,22 +11780,22 @@
         <v>215</v>
       </c>
       <c r="D122" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F122" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G122" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H122" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="I122" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J122">
         <v>420</v>
@@ -11779,22 +11812,22 @@
         <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E123" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F123" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G123" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="H123" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="I123" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J123">
         <v>810</v>
@@ -11811,22 +11844,22 @@
         <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E124" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F124" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G124" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H124" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="I124" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J124">
         <v>300</v>
@@ -11843,22 +11876,22 @@
         <v>215</v>
       </c>
       <c r="D125" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F125" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G125" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H125" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="I125" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J125">
         <v>128</v>
@@ -11875,22 +11908,22 @@
         <v>215</v>
       </c>
       <c r="D126" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F126" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G126" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H126" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I126" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J126">
         <v>50</v>
@@ -11907,22 +11940,22 @@
         <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E127" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F127" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G127" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H127" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I127" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J127">
         <v>900</v>
@@ -11939,22 +11972,22 @@
         <v>222</v>
       </c>
       <c r="D128" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F128" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G128" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H128" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="I128" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J128">
         <v>290</v>
@@ -11971,22 +12004,22 @@
         <v>222</v>
       </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E129" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F129" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G129" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H129" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="I129" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J129">
         <v>350</v>
@@ -12003,22 +12036,22 @@
         <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F130" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G130" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H130" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="I130" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J130">
         <v>7000</v>
@@ -12035,22 +12068,22 @@
         <v>215</v>
       </c>
       <c r="D131" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E131" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F131" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G131" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H131" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="I131" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J131">
         <v>6000</v>
@@ -12067,22 +12100,22 @@
         <v>215</v>
       </c>
       <c r="D132" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E132" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F132" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G132" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H132" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="I132" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J132">
         <v>1400</v>
@@ -12102,16 +12135,16 @@
         <v>229</v>
       </c>
       <c r="E133" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F133" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H133" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I133" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J133">
         <v>200</v>
@@ -12131,19 +12164,19 @@
         <v>229</v>
       </c>
       <c r="E134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F134" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G134" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H134" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I134" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J134">
         <v>1721</v>
@@ -12160,22 +12193,22 @@
         <v>215</v>
       </c>
       <c r="D135" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E135" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F135" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G135" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H135" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="I135" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J135">
         <v>1090</v>
@@ -12192,22 +12225,22 @@
         <v>215</v>
       </c>
       <c r="D136" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E136" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F136" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G136" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H136" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="I136" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J136">
         <v>1200</v>
@@ -12224,22 +12257,22 @@
         <v>215</v>
       </c>
       <c r="D137" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F137" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G137" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H137" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I137" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J137">
         <v>1800</v>
@@ -12256,22 +12289,22 @@
         <v>215</v>
       </c>
       <c r="D138" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E138" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F138" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G138" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H138" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="I138" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J138">
         <v>105</v>
@@ -12288,22 +12321,22 @@
         <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="E139" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F139" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G139" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H139" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="I139" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J139">
         <v>1200</v>
@@ -12320,22 +12353,22 @@
         <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="E140" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F140" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G140" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H140" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I140" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J140">
         <v>1004</v>
@@ -12352,22 +12385,22 @@
         <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E141" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F141" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G141" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H141" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="I141" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J141">
         <v>300</v>
@@ -12387,19 +12420,19 @@
         <v>228</v>
       </c>
       <c r="E142" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F142" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="G142" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="H142" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="I142" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J142">
         <v>4900</v>
@@ -12419,19 +12452,19 @@
         <v>228</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F143" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G143" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H143" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="I143" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J143">
         <v>448</v>
@@ -12448,22 +12481,22 @@
         <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E144" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F144" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G144" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="H144" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I144" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J144">
         <v>2400</v>
@@ -12480,22 +12513,22 @@
         <v>222</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E145" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F145" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G145" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H145" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="I145" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -12512,22 +12545,22 @@
         <v>215</v>
       </c>
       <c r="D146" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E146" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F146" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G146" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H146" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I146" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J146">
         <v>30</v>
@@ -12544,22 +12577,22 @@
         <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E147" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F147" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G147" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="H147" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I147" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J147">
         <v>508</v>
@@ -12576,22 +12609,22 @@
         <v>215</v>
       </c>
       <c r="D148" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F148" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G148" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H148" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="I148" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J148">
         <v>2480</v>
@@ -12608,22 +12641,22 @@
         <v>215</v>
       </c>
       <c r="D149" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E149" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F149" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G149" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H149" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="I149" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J149">
         <v>500</v>
@@ -12640,22 +12673,22 @@
         <v>215</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E150" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F150" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="G150" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H150" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I150" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -12672,22 +12705,22 @@
         <v>215</v>
       </c>
       <c r="D151" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F151" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G151" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H151" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="I151" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J151">
         <v>98</v>
@@ -12704,22 +12737,22 @@
         <v>215</v>
       </c>
       <c r="D152" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F152" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G152" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="H152" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I152" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J152">
         <v>40</v>
@@ -12736,22 +12769,22 @@
         <v>215</v>
       </c>
       <c r="D153" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F153" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G153" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H153" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="I153" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J153">
         <v>900</v>
@@ -12768,22 +12801,22 @@
         <v>215</v>
       </c>
       <c r="D154" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E154" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F154" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G154" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H154" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="I154" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J154">
         <v>800</v>
@@ -12803,19 +12836,19 @@
         <v>228</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F155" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G155" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H155" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I155" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J155">
         <v>800</v>
@@ -12835,16 +12868,16 @@
         <v>229</v>
       </c>
       <c r="E156" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F156" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H156" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I156" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J156">
         <v>7361</v>
@@ -12864,19 +12897,19 @@
         <v>229</v>
       </c>
       <c r="E157" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F157" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G157" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H157" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I157" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J157">
         <v>3864</v>
@@ -12896,16 +12929,16 @@
         <v>229</v>
       </c>
       <c r="E158" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F158" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H158" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I158" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J158">
         <v>619</v>
@@ -12922,22 +12955,22 @@
         <v>215</v>
       </c>
       <c r="D159" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F159" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G159" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="H159" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="I159" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J159">
         <v>6200</v>
@@ -12954,19 +12987,19 @@
         <v>215</v>
       </c>
       <c r="D160" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E160" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F160" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H160" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I160" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J160">
         <v>300</v>
@@ -12983,22 +13016,22 @@
         <v>220</v>
       </c>
       <c r="D161" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="E161" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F161" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G161" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H161" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I161" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J161">
         <v>16445</v>
@@ -13015,22 +13048,22 @@
         <v>223</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F162" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G162" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H162" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="I162" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J162">
         <v>390</v>
@@ -13050,19 +13083,19 @@
         <v>234</v>
       </c>
       <c r="E163" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F163" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G163" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H163" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="I163" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J163">
         <v>1500</v>
@@ -13079,22 +13112,22 @@
         <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G164" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H164" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="I164" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J164">
         <v>500</v>
@@ -13111,22 +13144,22 @@
         <v>215</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E165" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F165" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G165" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H165" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I165" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J165">
         <v>20000</v>
@@ -13143,22 +13176,22 @@
         <v>218</v>
       </c>
       <c r="D166" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G166" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H166" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="I166" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J166">
         <v>40000</v>
@@ -13175,22 +13208,22 @@
         <v>222</v>
       </c>
       <c r="D167" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G167" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H167" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="I167" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J167">
         <v>300</v>
@@ -13207,22 +13240,22 @@
         <v>215</v>
       </c>
       <c r="D168" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E168" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G168" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="H168" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="I168" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J168">
         <v>10000</v>
@@ -13239,22 +13272,22 @@
         <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E169" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="F169" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G169" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H169" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="I169" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J169">
         <v>2772</v>
@@ -13271,22 +13304,22 @@
         <v>223</v>
       </c>
       <c r="D170" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F170" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G170" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H170" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="I170" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J170">
         <v>9650</v>
@@ -13306,19 +13339,19 @@
         <v>228</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G171" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H171" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="I171" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J171">
         <v>8050</v>
@@ -13335,22 +13368,22 @@
         <v>223</v>
       </c>
       <c r="D172" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E172" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F172" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G172" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H172" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="I172" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -13367,22 +13400,22 @@
         <v>215</v>
       </c>
       <c r="D173" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E173" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G173" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H173" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="I173" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J173">
         <v>800</v>
@@ -13399,22 +13432,22 @@
         <v>215</v>
       </c>
       <c r="D174" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E174" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G174" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H174" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="I174" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="J174">
         <v>900</v>
@@ -13431,22 +13464,22 @@
         <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G175" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H175" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="I175" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="J175">
         <v>1200</v>
@@ -13466,19 +13499,19 @@
         <v>229</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G176" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="H176" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I176" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J176">
         <v>400</v>
@@ -13495,22 +13528,22 @@
         <v>218</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E177" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F177" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G177" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="H177" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="I177" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="J177">
         <v>30</v>
@@ -13527,22 +13560,22 @@
         <v>218</v>
       </c>
       <c r="D178" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E178" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G178" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H178" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="I178" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -13559,22 +13592,22 @@
         <v>215</v>
       </c>
       <c r="D179" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E179" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F179" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G179" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="H179" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="I179" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -13601,16 +13634,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13628,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13646,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13664,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13682,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -13703,16 +13736,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13730,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13748,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13766,7 +13799,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13784,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -13811,21 +13844,21 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B2">
         <v>127</v>
@@ -13837,12 +13870,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B3">
         <v>98</v>
@@ -13854,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13872,12 +13905,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -13889,13 +13922,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>639</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -13904,45 +13936,46 @@
         <v>0.1235955056179775</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>631</v>
+      <c r="A7" s="2">
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1235955056179775</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>0.1067415730337079</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13960,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13978,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13996,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14014,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14032,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14050,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14107,16 +14140,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14152,7 +14185,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14170,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14188,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14206,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14224,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14242,43 +14275,43 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.1067415730337079</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Device Validation Study%22%5D%7D%5D", "Device Validation Study")</f>
+        <f>HYPERLINK("https://radxdatahub.nih.gov/studyExplorer?&amp;facets=%5B%7B%22name%22:%22types_array%22,%22facets%22:%5B%22Interventional/Clinical Trial%22%5D%7D%5D", "Interventional/Clinical Trial")</f>
         <v>0</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>0.1235955056179775</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14296,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -14323,21 +14356,21 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>142</v>
@@ -14349,12 +14382,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B3">
         <v>78</v>
@@ -14366,12 +14399,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>72</v>
@@ -14383,12 +14416,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B5">
         <v>59</v>
@@ -14400,12 +14433,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B6">
         <v>52</v>
@@ -14417,12 +14450,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -14434,233 +14467,233 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
-        <v>0.1179775280898876</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>0.0898876404494382</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>0.05617977528089887</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>658</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
-        <v>0.0449438202247191</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0449438202247191</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>650</v>
+        <v>257</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>0.03932584269662921</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>0.03370786516853932</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
-        <v>0.02808988764044944</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
-        <v>0.02247191011235955</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>0.01685393258426966</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>664</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>0.01123595505617977</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>0.005617977528089887</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>282</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>0.005617977528089887</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -14672,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -14693,89 +14726,89 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>658</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.0449438202247191</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>0.05617977528089887</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.0898876404494382</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>0.1179775280898876</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>34</v>
@@ -14787,12 +14820,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -14804,12 +14837,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B8">
         <v>59</v>
@@ -14821,12 +14854,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B9">
         <v>72</v>
@@ -14838,12 +14871,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B10">
         <v>78</v>
@@ -14855,12 +14888,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B11">
         <v>142</v>
@@ -14872,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
